--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="441">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1669,6 +1669,33 @@
   </si>
   <si>
     <t>SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO-LONGANIZA-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>CHORIZO-POLLO-JAMON</t>
+  </si>
+  <si>
+    <t>QUESO-SALCHICHA-JAMON</t>
+  </si>
+  <si>
+    <t>QUESOS --POLLO</t>
+  </si>
+  <si>
+    <t>SEMANA # 7</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-QUESO-LENGUA</t>
+  </si>
+  <si>
+    <t>NOMINA # 7</t>
   </si>
 </sst>
 </file>
@@ -4418,6 +4445,78 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4451,84 +4550,45 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4570,39 +4630,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7302,23 +7329,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
-      <c r="C1" s="443" t="s">
+      <c r="B1" s="465"/>
+      <c r="C1" s="467" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="444"/>
-      <c r="L1" s="444"/>
-      <c r="M1" s="444"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="468"/>
+      <c r="J1" s="468"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="468"/>
+      <c r="M1" s="468"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7328,17 +7355,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7352,14 +7379,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -7369,10 +7396,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="457" t="s">
+      <c r="P4" s="446" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="458"/>
+      <c r="Q4" s="447"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8813,11 +8840,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="459">
+      <c r="M39" s="448">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="461">
+      <c r="N39" s="450">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8843,8 +8870,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="460"/>
-      <c r="N40" s="462"/>
+      <c r="M40" s="449"/>
+      <c r="N40" s="451"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9059,29 +9086,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="466"/>
-      <c r="M52" s="467">
+      <c r="L52" s="455"/>
+      <c r="M52" s="456">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="468"/>
+      <c r="N52" s="457"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9092,22 +9119,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="469" t="s">
+      <c r="D54" s="458" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="469"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="473"/>
+      <c r="L54" s="462"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9140,11 +9167,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9161,22 +9188,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -9320,6 +9347,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -9334,12 +9367,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14508,23 +14535,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
-      <c r="C1" s="443" t="s">
+      <c r="B1" s="465"/>
+      <c r="C1" s="467" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="444"/>
-      <c r="L1" s="444"/>
-      <c r="M1" s="444"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="468"/>
+      <c r="J1" s="468"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="468"/>
+      <c r="M1" s="468"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14534,21 +14561,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="484" t="s">
+      <c r="P3" s="495" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14563,14 +14590,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14580,14 +14607,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="485"/>
+      <c r="P4" s="496"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="494" t="s">
+      <c r="W4" s="478" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="494"/>
+      <c r="X4" s="478"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14638,8 +14665,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
+      <c r="W5" s="478"/>
+      <c r="X5" s="478"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15410,7 +15437,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="498">
+      <c r="W19" s="482">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -15462,7 +15489,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="499"/>
+      <c r="W20" s="483"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15511,8 +15538,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="500"/>
-      <c r="X21" s="500"/>
+      <c r="W21" s="484"/>
+      <c r="X21" s="484"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15613,8 +15640,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="501"/>
-      <c r="X23" s="501"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15668,8 +15695,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="501"/>
-      <c r="X24" s="501"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15715,8 +15742,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="502"/>
-      <c r="X25" s="502"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15767,8 +15794,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="502"/>
-      <c r="X26" s="502"/>
+      <c r="W26" s="486"/>
+      <c r="X26" s="486"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15816,9 +15843,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="495"/>
-      <c r="X27" s="496"/>
-      <c r="Y27" s="497"/>
+      <c r="W27" s="479"/>
+      <c r="X27" s="480"/>
+      <c r="Y27" s="481"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15868,9 +15895,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="496"/>
-      <c r="X28" s="496"/>
-      <c r="Y28" s="497"/>
+      <c r="W28" s="480"/>
+      <c r="X28" s="480"/>
+      <c r="Y28" s="481"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16205,11 +16232,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="486">
+      <c r="M36" s="497">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="488">
+      <c r="N36" s="499">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -16217,7 +16244,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="490">
+      <c r="Q36" s="501">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -16252,13 +16279,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="487"/>
-      <c r="N37" s="489"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="500"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="491"/>
+      <c r="Q37" s="502"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -16548,26 +16575,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="492"/>
+      <c r="L52" s="487"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -16576,29 +16603,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="493" t="s">
+      <c r="D54" s="488" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="493"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="472"/>
-      <c r="M54" s="478" t="s">
+      <c r="L54" s="461"/>
+      <c r="M54" s="489" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="479"/>
-      <c r="O54" s="479"/>
-      <c r="P54" s="479"/>
-      <c r="Q54" s="480"/>
+      <c r="N54" s="490"/>
+      <c r="O54" s="490"/>
+      <c r="P54" s="490"/>
+      <c r="Q54" s="491"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -16612,11 +16639,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="481"/>
-      <c r="N55" s="482"/>
-      <c r="O55" s="482"/>
-      <c r="P55" s="482"/>
-      <c r="Q55" s="483"/>
+      <c r="M55" s="492"/>
+      <c r="N55" s="493"/>
+      <c r="O55" s="493"/>
+      <c r="P55" s="493"/>
+      <c r="Q55" s="494"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -16634,11 +16661,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16655,22 +16682,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16814,14 +16841,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16832,17 +16862,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19585,23 +19612,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
-      <c r="C1" s="443" t="s">
+      <c r="B1" s="465"/>
+      <c r="C1" s="467" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="444"/>
-      <c r="L1" s="444"/>
-      <c r="M1" s="444"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="468"/>
+      <c r="J1" s="468"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="468"/>
+      <c r="M1" s="468"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19611,21 +19638,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="484" t="s">
+      <c r="P3" s="495" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -19643,14 +19670,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19660,15 +19687,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="485"/>
+      <c r="P4" s="496"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="494" t="s">
+      <c r="W4" s="478" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="494"/>
+      <c r="X4" s="478"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19729,8 +19756,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
+      <c r="W5" s="478"/>
+      <c r="X5" s="478"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20487,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="498">
+      <c r="W19" s="482">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20539,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="499"/>
+      <c r="W20" s="483"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20588,8 +20615,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="500"/>
-      <c r="X21" s="500"/>
+      <c r="W21" s="484"/>
+      <c r="X21" s="484"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20690,8 +20717,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="501"/>
-      <c r="X23" s="501"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20742,8 +20769,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="501"/>
-      <c r="X24" s="501"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20789,8 +20816,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="502"/>
-      <c r="X25" s="502"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20838,8 +20865,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="502"/>
-      <c r="X26" s="502"/>
+      <c r="W26" s="486"/>
+      <c r="X26" s="486"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20899,9 +20926,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="495"/>
-      <c r="X27" s="496"/>
-      <c r="Y27" s="497"/>
+      <c r="W27" s="479"/>
+      <c r="X27" s="480"/>
+      <c r="Y27" s="481"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20955,9 +20982,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="496"/>
-      <c r="X28" s="496"/>
-      <c r="Y28" s="497"/>
+      <c r="W28" s="480"/>
+      <c r="X28" s="480"/>
+      <c r="Y28" s="481"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21273,11 +21300,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="486">
+      <c r="M36" s="497">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="488">
+      <c r="N36" s="499">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -21285,7 +21312,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="490">
+      <c r="Q36" s="501">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -21304,13 +21331,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="487"/>
-      <c r="N37" s="489"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="500"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="491"/>
+      <c r="Q37" s="502"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21584,26 +21611,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="492"/>
+      <c r="L52" s="487"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -21612,29 +21639,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="493" t="s">
+      <c r="D54" s="488" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="493"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="472"/>
-      <c r="M54" s="478" t="s">
+      <c r="L54" s="461"/>
+      <c r="M54" s="489" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="479"/>
-      <c r="O54" s="479"/>
-      <c r="P54" s="479"/>
-      <c r="Q54" s="480"/>
+      <c r="N54" s="490"/>
+      <c r="O54" s="490"/>
+      <c r="P54" s="490"/>
+      <c r="Q54" s="491"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21648,11 +21675,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="481"/>
-      <c r="N55" s="482"/>
-      <c r="O55" s="482"/>
-      <c r="P55" s="482"/>
-      <c r="Q55" s="483"/>
+      <c r="M55" s="492"/>
+      <c r="N55" s="493"/>
+      <c r="O55" s="493"/>
+      <c r="P55" s="493"/>
+      <c r="Q55" s="494"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21670,11 +21697,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21691,22 +21718,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21850,20 +21877,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -21873,13 +21893,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24574,7 +24601,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
+      <c r="B1" s="465"/>
       <c r="C1" s="507" t="s">
         <v>323</v>
       </c>
@@ -24590,7 +24617,7 @@
       <c r="M1" s="508"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24600,21 +24627,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="484" t="s">
+      <c r="P3" s="495" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -24632,14 +24659,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24649,15 +24676,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="485"/>
+      <c r="P4" s="496"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="494" t="s">
+      <c r="W4" s="478" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="494"/>
+      <c r="X4" s="478"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24708,8 +24735,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
+      <c r="W5" s="478"/>
+      <c r="X5" s="478"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25473,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="498">
+      <c r="W19" s="482">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25526,7 +25553,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="499"/>
+      <c r="W20" s="483"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25575,8 +25602,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="500"/>
-      <c r="X21" s="500"/>
+      <c r="W21" s="484"/>
+      <c r="X21" s="484"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25676,8 +25703,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="501"/>
-      <c r="X23" s="501"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25732,8 +25759,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="501"/>
-      <c r="X24" s="501"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25778,8 +25805,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="502"/>
-      <c r="X25" s="502"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25827,8 +25854,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="502"/>
-      <c r="X26" s="502"/>
+      <c r="W26" s="486"/>
+      <c r="X26" s="486"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25882,9 +25909,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="495"/>
-      <c r="X27" s="496"/>
-      <c r="Y27" s="497"/>
+      <c r="W27" s="479"/>
+      <c r="X27" s="480"/>
+      <c r="Y27" s="481"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25938,9 +25965,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="496"/>
-      <c r="X28" s="496"/>
-      <c r="Y28" s="497"/>
+      <c r="W28" s="480"/>
+      <c r="X28" s="480"/>
+      <c r="Y28" s="481"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26245,11 +26272,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="486">
+      <c r="M36" s="497">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="488">
+      <c r="N36" s="499">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -26257,7 +26284,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="490">
+      <c r="Q36" s="501">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -26282,13 +26309,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="487"/>
-      <c r="N37" s="489"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="500"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="491"/>
+      <c r="Q37" s="502"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -26575,26 +26602,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="492"/>
+      <c r="L52" s="487"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -26603,22 +26630,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="493" t="s">
+      <c r="D54" s="488" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="493"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="472"/>
+      <c r="L54" s="461"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -26659,11 +26686,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26680,22 +26707,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -26839,20 +26866,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26868,6 +26881,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29622,8 +29649,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29652,7 +29679,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
+      <c r="B1" s="465"/>
       <c r="C1" s="507" t="s">
         <v>323</v>
       </c>
@@ -29668,7 +29695,7 @@
       <c r="M1" s="508"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29678,21 +29705,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="484" t="s">
+      <c r="P3" s="495" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -29710,14 +29737,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29727,15 +29754,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="485"/>
+      <c r="P4" s="496"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="494" t="s">
+      <c r="W4" s="478" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="494"/>
+      <c r="X4" s="478"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29786,8 +29813,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
+      <c r="W5" s="478"/>
+      <c r="X5" s="478"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30135,35 +30162,38 @@
         <v>44599</v>
       </c>
       <c r="C12" s="25">
-        <v>0</v>
-      </c>
-      <c r="D12" s="35"/>
+        <v>15387</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>432</v>
+      </c>
       <c r="E12" s="27">
         <v>44599</v>
       </c>
       <c r="F12" s="28">
-        <v>0</v>
+        <v>87730</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="36">
         <v>44599</v>
       </c>
       <c r="I12" s="30">
-        <v>0</v>
+        <v>410.5</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>7964+42823.5</f>
+        <v>50787.5</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>21145</v>
       </c>
       <c r="O12" s="329"/>
       <c r="P12" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>87730</v>
       </c>
       <c r="Q12" s="318">
         <f t="shared" si="1"/>
@@ -30190,35 +30220,37 @@
         <v>44600</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="42"/>
+        <v>8670</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>435</v>
+      </c>
       <c r="E13" s="27">
         <v>44600</v>
       </c>
       <c r="F13" s="28">
-        <v>0</v>
+        <v>98373</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="36">
         <v>44600</v>
       </c>
       <c r="I13" s="30">
-        <v>0</v>
+        <v>1328</v>
       </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <v>61009</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>27366</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>98373</v>
       </c>
       <c r="Q13" s="318">
         <f t="shared" si="1"/>
@@ -30242,39 +30274,40 @@
         <v>44601</v>
       </c>
       <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="40"/>
+        <v>15994</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>433</v>
+      </c>
       <c r="E14" s="27">
         <v>44601</v>
       </c>
       <c r="F14" s="28">
-        <v>0</v>
+        <v>147661</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="36">
         <v>44601</v>
       </c>
       <c r="I14" s="30">
-        <v>0</v>
+        <v>3417</v>
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <v>108127</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>20123</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>147661</v>
+      </c>
+      <c r="Q14" s="318" t="s">
+        <v>434</v>
       </c>
       <c r="R14" s="320">
         <v>0</v>
@@ -30292,38 +30325,41 @@
         <v>44602</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="40"/>
+        <v>5420</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>436</v>
+      </c>
       <c r="E15" s="27">
         <v>44602</v>
       </c>
       <c r="F15" s="28">
-        <v>0</v>
+        <v>93319</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="36">
         <v>44602</v>
       </c>
       <c r="I15" s="30">
-        <v>0</v>
+        <v>2651</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <f>37988+10000+3340</f>
+        <v>51328</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>35435</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94834</v>
+      </c>
+      <c r="Q15" s="326">
+        <f t="shared" si="1"/>
+        <v>1515</v>
       </c>
       <c r="R15" s="320">
         <v>0</v>
@@ -30341,39 +30377,42 @@
         <v>44603</v>
       </c>
       <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="35"/>
+        <v>9368</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>437</v>
+      </c>
       <c r="E16" s="27">
         <v>44603</v>
       </c>
       <c r="F16" s="28">
-        <v>0</v>
+        <v>98105</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="36">
         <v>44603</v>
       </c>
       <c r="I16" s="30">
-        <v>0</v>
+        <v>472.5</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>53682.5+10000+100</f>
+        <v>63782.5</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>24582</v>
       </c>
       <c r="O16" s="331"/>
       <c r="P16" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98205</v>
+      </c>
+      <c r="Q16" s="326">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="R16" s="320">
         <v>0</v>
@@ -30391,38 +30430,46 @@
         <v>44604</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="42"/>
+        <v>16691</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>439</v>
+      </c>
       <c r="E17" s="27">
         <v>44604</v>
       </c>
       <c r="F17" s="28">
-        <v>0</v>
+        <v>124649</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="36">
         <v>44604</v>
       </c>
       <c r="I17" s="30">
-        <v>0</v>
-      </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
+        <v>2742</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44604</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="L17" s="45">
+        <v>13699.71</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <v>43768</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>47548</v>
       </c>
       <c r="P17" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>124448.70999999999</v>
       </c>
       <c r="Q17" s="318">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-200.29000000000815</v>
       </c>
       <c r="R17" s="320">
         <v>0</v>
@@ -30447,27 +30494,27 @@
         <v>44605</v>
       </c>
       <c r="F18" s="28">
-        <v>0</v>
+        <v>89703</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="36">
         <v>44605</v>
       </c>
       <c r="I18" s="30">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="170"/>
       <c r="L18" s="39"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <v>59160</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>29493</v>
       </c>
       <c r="P18" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89703</v>
       </c>
       <c r="Q18" s="318">
         <f t="shared" si="1"/>
@@ -30526,7 +30573,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="498">
+      <c r="W19" s="482">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30576,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="499"/>
+      <c r="W20" s="483"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30623,8 +30670,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="500"/>
-      <c r="X21" s="500"/>
+      <c r="W21" s="484"/>
+      <c r="X21" s="484"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30719,8 +30766,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="501"/>
-      <c r="X23" s="501"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30767,8 +30814,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="501"/>
-      <c r="X24" s="501"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30814,8 +30861,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="502"/>
-      <c r="X25" s="502"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30861,8 +30908,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="502"/>
-      <c r="X26" s="502"/>
+      <c r="W26" s="486"/>
+      <c r="X26" s="486"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30908,9 +30955,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="495"/>
-      <c r="X27" s="496"/>
-      <c r="Y27" s="497"/>
+      <c r="W27" s="479"/>
+      <c r="X27" s="480"/>
+      <c r="Y27" s="481"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30955,9 +31002,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="496"/>
-      <c r="X28" s="496"/>
-      <c r="Y28" s="497"/>
+      <c r="W28" s="480"/>
+      <c r="X28" s="480"/>
+      <c r="Y28" s="481"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31232,21 +31279,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="486">
+      <c r="M36" s="497">
         <f>SUM(M5:M35)</f>
-        <v>299500.5</v>
-      </c>
-      <c r="N36" s="488">
+        <v>737462.5</v>
+      </c>
+      <c r="N36" s="499">
         <f>SUM(N5:N35)</f>
-        <v>209918</v>
+        <v>415610</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="490">
+      <c r="Q36" s="501">
         <f>SUM(Q5:Q35)</f>
-        <v>1.4100000000034925</v>
+        <v>1416.1199999999953</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -31269,13 +31316,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="487"/>
-      <c r="N37" s="489"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="500"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="491"/>
+      <c r="Q37" s="502"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -31290,9 +31337,15 @@
       <c r="G38" s="2"/>
       <c r="H38" s="36"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="61"/>
+      <c r="J38" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="K38" s="177" t="s">
+        <v>438</v>
+      </c>
+      <c r="L38" s="61">
+        <v>17618.78</v>
+      </c>
       <c r="M38" s="270"/>
       <c r="N38" s="271"/>
       <c r="P38" s="151">
@@ -31317,7 +31370,7 @@
       <c r="N39" s="278"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>639735.41</v>
+        <v>1380690.12</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -31508,7 +31561,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>105730.5</v>
+        <v>177260.5</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -31516,7 +31569,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>595168</v>
+        <v>1334708</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -31524,7 +31577,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>14927</v>
+        <v>26998</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -31532,7 +31585,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>26178.19</v>
+        <v>57496.679999999993</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -31550,50 +31603,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
-        <v>41105.19</v>
-      </c>
-      <c r="L52" s="492"/>
+        <v>84494.68</v>
+      </c>
+      <c r="L52" s="487"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>448332.31000000006</v>
+        <v>1072952.82</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="493" t="s">
+      <c r="D54" s="488" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="493"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
-        <v>448332.31000000006</v>
-      </c>
-      <c r="L54" s="472"/>
+        <v>1072952.82</v>
+      </c>
+      <c r="L54" s="461"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31627,18 +31680,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>448332.31000000006</v>
+        <v>1072952.82</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31653,22 +31706,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
-        <v>-701408.09999999986</v>
-      </c>
-      <c r="L58" s="456"/>
+        <v>-76787.589999999851</v>
+      </c>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -31812,6 +31865,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -31827,20 +31894,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -4445,6 +4445,39 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4517,45 +4550,60 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4582,54 +4630,6 @@
     </xf>
     <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7329,23 +7329,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
-      <c r="C1" s="467" t="s">
+      <c r="B1" s="441"/>
+      <c r="C1" s="443" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
-      <c r="F1" s="468"/>
-      <c r="G1" s="468"/>
-      <c r="H1" s="468"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
-      <c r="K1" s="468"/>
-      <c r="L1" s="468"/>
-      <c r="M1" s="468"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="444"/>
+      <c r="L1" s="444"/>
+      <c r="M1" s="444"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="442"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7355,17 +7355,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="446"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="447" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="447"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7379,14 +7379,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="448" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="449"/>
+      <c r="H4" s="450" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="451"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -7396,10 +7396,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="457" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="447"/>
+      <c r="Q4" s="458"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8840,11 +8840,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="448">
+      <c r="M39" s="459">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="450">
+      <c r="N39" s="461">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8870,8 +8870,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="449"/>
-      <c r="N40" s="451"/>
+      <c r="M40" s="460"/>
+      <c r="N40" s="462"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9086,29 +9086,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="455"/>
-      <c r="M52" s="456">
+      <c r="L52" s="466"/>
+      <c r="M52" s="467">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="457"/>
+      <c r="N52" s="468"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9119,22 +9119,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="469" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="469"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="462"/>
+      <c r="L54" s="473"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9167,11 +9167,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9188,22 +9188,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="454" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -9347,12 +9347,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -9367,6 +9361,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14535,23 +14535,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
-      <c r="C1" s="467" t="s">
+      <c r="B1" s="441"/>
+      <c r="C1" s="443" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
-      <c r="F1" s="468"/>
-      <c r="G1" s="468"/>
-      <c r="H1" s="468"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
-      <c r="K1" s="468"/>
-      <c r="L1" s="468"/>
-      <c r="M1" s="468"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="444"/>
+      <c r="L1" s="444"/>
+      <c r="M1" s="444"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="442"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14561,21 +14561,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="446"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="447" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="447"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="484" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14590,14 +14590,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="448" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="449"/>
+      <c r="H4" s="450" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="451"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14607,14 +14607,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="485"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="478" t="s">
+      <c r="W4" s="494" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="478"/>
+      <c r="X4" s="494"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14665,8 +14665,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
+      <c r="W5" s="494"/>
+      <c r="X5" s="494"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15437,7 +15437,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="482">
+      <c r="W19" s="498">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="483"/>
+      <c r="W20" s="499"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15538,8 +15538,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="484"/>
-      <c r="X21" s="484"/>
+      <c r="W21" s="500"/>
+      <c r="X21" s="500"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15640,8 +15640,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
+      <c r="W23" s="501"/>
+      <c r="X23" s="501"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15695,8 +15695,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
+      <c r="W24" s="501"/>
+      <c r="X24" s="501"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15742,8 +15742,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="486"/>
-      <c r="X25" s="486"/>
+      <c r="W25" s="502"/>
+      <c r="X25" s="502"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15794,8 +15794,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="486"/>
-      <c r="X26" s="486"/>
+      <c r="W26" s="502"/>
+      <c r="X26" s="502"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15843,9 +15843,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="479"/>
-      <c r="X27" s="480"/>
-      <c r="Y27" s="481"/>
+      <c r="W27" s="495"/>
+      <c r="X27" s="496"/>
+      <c r="Y27" s="497"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15895,9 +15895,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="480"/>
-      <c r="X28" s="480"/>
-      <c r="Y28" s="481"/>
+      <c r="W28" s="496"/>
+      <c r="X28" s="496"/>
+      <c r="Y28" s="497"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16232,11 +16232,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="497">
+      <c r="M36" s="486">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="499">
+      <c r="N36" s="488">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -16244,7 +16244,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="501">
+      <c r="Q36" s="490">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -16279,13 +16279,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="498"/>
-      <c r="N37" s="500"/>
+      <c r="M37" s="487"/>
+      <c r="N37" s="489"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="502"/>
+      <c r="Q37" s="491"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -16575,26 +16575,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="487"/>
+      <c r="L52" s="492"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -16603,29 +16603,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="488" t="s">
+      <c r="D54" s="493" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="488"/>
+      <c r="E54" s="493"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="461"/>
-      <c r="M54" s="489" t="s">
+      <c r="L54" s="472"/>
+      <c r="M54" s="478" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="490"/>
-      <c r="O54" s="490"/>
-      <c r="P54" s="490"/>
-      <c r="Q54" s="491"/>
+      <c r="N54" s="479"/>
+      <c r="O54" s="479"/>
+      <c r="P54" s="479"/>
+      <c r="Q54" s="480"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -16639,11 +16639,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="492"/>
-      <c r="N55" s="493"/>
-      <c r="O55" s="493"/>
-      <c r="P55" s="493"/>
-      <c r="Q55" s="494"/>
+      <c r="M55" s="481"/>
+      <c r="N55" s="482"/>
+      <c r="O55" s="482"/>
+      <c r="P55" s="482"/>
+      <c r="Q55" s="483"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -16661,11 +16661,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16682,22 +16682,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16841,17 +16841,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16862,14 +16859,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19612,23 +19612,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
-      <c r="C1" s="467" t="s">
+      <c r="B1" s="441"/>
+      <c r="C1" s="443" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
-      <c r="F1" s="468"/>
-      <c r="G1" s="468"/>
-      <c r="H1" s="468"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
-      <c r="K1" s="468"/>
-      <c r="L1" s="468"/>
-      <c r="M1" s="468"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="444"/>
+      <c r="L1" s="444"/>
+      <c r="M1" s="444"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="442"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19638,21 +19638,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="446"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="447" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="447"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="484" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -19670,14 +19670,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="448" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="449"/>
+      <c r="H4" s="450" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="451"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19687,15 +19687,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="485"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="478" t="s">
+      <c r="W4" s="494" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="478"/>
+      <c r="X4" s="494"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19756,8 +19756,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
+      <c r="W5" s="494"/>
+      <c r="X5" s="494"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20514,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="482">
+      <c r="W19" s="498">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="483"/>
+      <c r="W20" s="499"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20615,8 +20615,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="484"/>
-      <c r="X21" s="484"/>
+      <c r="W21" s="500"/>
+      <c r="X21" s="500"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20717,8 +20717,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
+      <c r="W23" s="501"/>
+      <c r="X23" s="501"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20769,8 +20769,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
+      <c r="W24" s="501"/>
+      <c r="X24" s="501"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20816,8 +20816,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="486"/>
-      <c r="X25" s="486"/>
+      <c r="W25" s="502"/>
+      <c r="X25" s="502"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20865,8 +20865,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="486"/>
-      <c r="X26" s="486"/>
+      <c r="W26" s="502"/>
+      <c r="X26" s="502"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20926,9 +20926,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="479"/>
-      <c r="X27" s="480"/>
-      <c r="Y27" s="481"/>
+      <c r="W27" s="495"/>
+      <c r="X27" s="496"/>
+      <c r="Y27" s="497"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20982,9 +20982,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="480"/>
-      <c r="X28" s="480"/>
-      <c r="Y28" s="481"/>
+      <c r="W28" s="496"/>
+      <c r="X28" s="496"/>
+      <c r="Y28" s="497"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21300,11 +21300,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="497">
+      <c r="M36" s="486">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="499">
+      <c r="N36" s="488">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -21312,7 +21312,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="501">
+      <c r="Q36" s="490">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -21331,13 +21331,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="498"/>
-      <c r="N37" s="500"/>
+      <c r="M37" s="487"/>
+      <c r="N37" s="489"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="502"/>
+      <c r="Q37" s="491"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21611,26 +21611,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="487"/>
+      <c r="L52" s="492"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -21639,29 +21639,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="488" t="s">
+      <c r="D54" s="493" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="488"/>
+      <c r="E54" s="493"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="461"/>
-      <c r="M54" s="489" t="s">
+      <c r="L54" s="472"/>
+      <c r="M54" s="478" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="490"/>
-      <c r="O54" s="490"/>
-      <c r="P54" s="490"/>
-      <c r="Q54" s="491"/>
+      <c r="N54" s="479"/>
+      <c r="O54" s="479"/>
+      <c r="P54" s="479"/>
+      <c r="Q54" s="480"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21675,11 +21675,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="492"/>
-      <c r="N55" s="493"/>
-      <c r="O55" s="493"/>
-      <c r="P55" s="493"/>
-      <c r="Q55" s="494"/>
+      <c r="M55" s="481"/>
+      <c r="N55" s="482"/>
+      <c r="O55" s="482"/>
+      <c r="P55" s="482"/>
+      <c r="Q55" s="483"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21697,11 +21697,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21718,22 +21718,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21877,13 +21877,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -21893,20 +21900,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24601,7 +24601,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
+      <c r="B1" s="441"/>
       <c r="C1" s="507" t="s">
         <v>323</v>
       </c>
@@ -24617,7 +24617,7 @@
       <c r="M1" s="508"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="442"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24627,21 +24627,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="446"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="447" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="447"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="484" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -24659,14 +24659,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="448" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="449"/>
+      <c r="H4" s="450" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="451"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24676,15 +24676,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="485"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="478" t="s">
+      <c r="W4" s="494" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="478"/>
+      <c r="X4" s="494"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24735,8 +24735,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
+      <c r="W5" s="494"/>
+      <c r="X5" s="494"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25500,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="482">
+      <c r="W19" s="498">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25553,7 +25553,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="483"/>
+      <c r="W20" s="499"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25602,8 +25602,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="484"/>
-      <c r="X21" s="484"/>
+      <c r="W21" s="500"/>
+      <c r="X21" s="500"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25703,8 +25703,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
+      <c r="W23" s="501"/>
+      <c r="X23" s="501"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25759,8 +25759,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
+      <c r="W24" s="501"/>
+      <c r="X24" s="501"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25805,8 +25805,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="486"/>
-      <c r="X25" s="486"/>
+      <c r="W25" s="502"/>
+      <c r="X25" s="502"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25854,8 +25854,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="486"/>
-      <c r="X26" s="486"/>
+      <c r="W26" s="502"/>
+      <c r="X26" s="502"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25909,9 +25909,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="479"/>
-      <c r="X27" s="480"/>
-      <c r="Y27" s="481"/>
+      <c r="W27" s="495"/>
+      <c r="X27" s="496"/>
+      <c r="Y27" s="497"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25965,9 +25965,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="480"/>
-      <c r="X28" s="480"/>
-      <c r="Y28" s="481"/>
+      <c r="W28" s="496"/>
+      <c r="X28" s="496"/>
+      <c r="Y28" s="497"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26272,11 +26272,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="497">
+      <c r="M36" s="486">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="499">
+      <c r="N36" s="488">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -26284,7 +26284,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="501">
+      <c r="Q36" s="490">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -26309,13 +26309,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="498"/>
-      <c r="N37" s="500"/>
+      <c r="M37" s="487"/>
+      <c r="N37" s="489"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="502"/>
+      <c r="Q37" s="491"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -26602,26 +26602,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="487"/>
+      <c r="L52" s="492"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -26630,22 +26630,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="488" t="s">
+      <c r="D54" s="493" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="488"/>
+      <c r="E54" s="493"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="461"/>
+      <c r="L54" s="472"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -26686,11 +26686,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26707,22 +26707,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -26866,6 +26866,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26881,20 +26895,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26910,8 +26910,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29649,8 +29649,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29679,7 +29679,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
+      <c r="B1" s="441"/>
       <c r="C1" s="507" t="s">
         <v>323</v>
       </c>
@@ -29695,7 +29695,7 @@
       <c r="M1" s="508"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="442"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29705,21 +29705,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="446"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="447" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="447"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="484" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -29737,14 +29737,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="448" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="449"/>
+      <c r="H4" s="450" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="451"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29754,15 +29754,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="485"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="478" t="s">
+      <c r="W4" s="494" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="478"/>
+      <c r="X4" s="494"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29813,8 +29813,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
+      <c r="W5" s="494"/>
+      <c r="X5" s="494"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30573,7 +30573,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="482">
+      <c r="W19" s="498">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30623,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="483"/>
+      <c r="W20" s="499"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30670,8 +30670,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="484"/>
-      <c r="X21" s="484"/>
+      <c r="W21" s="500"/>
+      <c r="X21" s="500"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30766,8 +30766,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
+      <c r="W23" s="501"/>
+      <c r="X23" s="501"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30814,8 +30814,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
+      <c r="W24" s="501"/>
+      <c r="X24" s="501"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30861,8 +30861,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="486"/>
-      <c r="X25" s="486"/>
+      <c r="W25" s="502"/>
+      <c r="X25" s="502"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30908,8 +30908,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="486"/>
-      <c r="X26" s="486"/>
+      <c r="W26" s="502"/>
+      <c r="X26" s="502"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30955,9 +30955,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="479"/>
-      <c r="X27" s="480"/>
-      <c r="Y27" s="481"/>
+      <c r="W27" s="495"/>
+      <c r="X27" s="496"/>
+      <c r="Y27" s="497"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31002,9 +31002,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="480"/>
-      <c r="X28" s="480"/>
-      <c r="Y28" s="481"/>
+      <c r="W28" s="496"/>
+      <c r="X28" s="496"/>
+      <c r="Y28" s="497"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31279,11 +31279,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="497">
+      <c r="M36" s="486">
         <f>SUM(M5:M35)</f>
         <v>737462.5</v>
       </c>
-      <c r="N36" s="499">
+      <c r="N36" s="488">
         <f>SUM(N5:N35)</f>
         <v>415610</v>
       </c>
@@ -31291,7 +31291,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="501">
+      <c r="Q36" s="490">
         <f>SUM(Q5:Q35)</f>
         <v>1416.1199999999953</v>
       </c>
@@ -31316,13 +31316,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="498"/>
-      <c r="N37" s="500"/>
+      <c r="M37" s="487"/>
+      <c r="N37" s="489"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="502"/>
+      <c r="Q37" s="491"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -31603,26 +31603,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>84494.68</v>
       </c>
-      <c r="L52" s="487"/>
+      <c r="L52" s="492"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1072952.82</v>
@@ -31631,22 +31631,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="488" t="s">
+      <c r="D54" s="493" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="488"/>
+      <c r="E54" s="493"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>1072952.82</v>
       </c>
-      <c r="L54" s="461"/>
+      <c r="L54" s="472"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31687,11 +31687,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31706,22 +31706,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>-76787.589999999851</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -31865,20 +31865,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -31894,6 +31880,20 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="442">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1696,6 +1696,9 @@
   </si>
   <si>
     <t>NOMINA # 7</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-JAMONES</t>
   </si>
 </sst>
 </file>
@@ -4445,6 +4448,78 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4478,84 +4553,45 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4597,39 +4633,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7329,23 +7332,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
-      <c r="C1" s="443" t="s">
+      <c r="B1" s="465"/>
+      <c r="C1" s="467" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="444"/>
-      <c r="L1" s="444"/>
-      <c r="M1" s="444"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="468"/>
+      <c r="J1" s="468"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="468"/>
+      <c r="M1" s="468"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7355,17 +7358,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7379,14 +7382,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -7396,10 +7399,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="457" t="s">
+      <c r="P4" s="446" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="458"/>
+      <c r="Q4" s="447"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8840,11 +8843,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="459">
+      <c r="M39" s="448">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="461">
+      <c r="N39" s="450">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8870,8 +8873,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="460"/>
-      <c r="N40" s="462"/>
+      <c r="M40" s="449"/>
+      <c r="N40" s="451"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9086,29 +9089,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="466"/>
-      <c r="M52" s="467">
+      <c r="L52" s="455"/>
+      <c r="M52" s="456">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="468"/>
+      <c r="N52" s="457"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9119,22 +9122,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="469" t="s">
+      <c r="D54" s="458" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="469"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="473"/>
+      <c r="L54" s="462"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9167,11 +9170,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9188,22 +9191,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -9347,6 +9350,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -9361,12 +9370,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14535,23 +14538,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
-      <c r="C1" s="443" t="s">
+      <c r="B1" s="465"/>
+      <c r="C1" s="467" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="444"/>
-      <c r="L1" s="444"/>
-      <c r="M1" s="444"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="468"/>
+      <c r="J1" s="468"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="468"/>
+      <c r="M1" s="468"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14561,21 +14564,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="484" t="s">
+      <c r="P3" s="495" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14590,14 +14593,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14607,14 +14610,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="485"/>
+      <c r="P4" s="496"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="494" t="s">
+      <c r="W4" s="478" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="494"/>
+      <c r="X4" s="478"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14665,8 +14668,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
+      <c r="W5" s="478"/>
+      <c r="X5" s="478"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15437,7 +15440,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="498">
+      <c r="W19" s="482">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -15489,7 +15492,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="499"/>
+      <c r="W20" s="483"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15538,8 +15541,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="500"/>
-      <c r="X21" s="500"/>
+      <c r="W21" s="484"/>
+      <c r="X21" s="484"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15640,8 +15643,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="501"/>
-      <c r="X23" s="501"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15695,8 +15698,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="501"/>
-      <c r="X24" s="501"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15742,8 +15745,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="502"/>
-      <c r="X25" s="502"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15794,8 +15797,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="502"/>
-      <c r="X26" s="502"/>
+      <c r="W26" s="486"/>
+      <c r="X26" s="486"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15843,9 +15846,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="495"/>
-      <c r="X27" s="496"/>
-      <c r="Y27" s="497"/>
+      <c r="W27" s="479"/>
+      <c r="X27" s="480"/>
+      <c r="Y27" s="481"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15895,9 +15898,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="496"/>
-      <c r="X28" s="496"/>
-      <c r="Y28" s="497"/>
+      <c r="W28" s="480"/>
+      <c r="X28" s="480"/>
+      <c r="Y28" s="481"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16232,11 +16235,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="486">
+      <c r="M36" s="497">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="488">
+      <c r="N36" s="499">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -16244,7 +16247,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="490">
+      <c r="Q36" s="501">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -16279,13 +16282,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="487"/>
-      <c r="N37" s="489"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="500"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="491"/>
+      <c r="Q37" s="502"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -16575,26 +16578,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="492"/>
+      <c r="L52" s="487"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -16603,29 +16606,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="493" t="s">
+      <c r="D54" s="488" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="493"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="472"/>
-      <c r="M54" s="478" t="s">
+      <c r="L54" s="461"/>
+      <c r="M54" s="489" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="479"/>
-      <c r="O54" s="479"/>
-      <c r="P54" s="479"/>
-      <c r="Q54" s="480"/>
+      <c r="N54" s="490"/>
+      <c r="O54" s="490"/>
+      <c r="P54" s="490"/>
+      <c r="Q54" s="491"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -16639,11 +16642,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="481"/>
-      <c r="N55" s="482"/>
-      <c r="O55" s="482"/>
-      <c r="P55" s="482"/>
-      <c r="Q55" s="483"/>
+      <c r="M55" s="492"/>
+      <c r="N55" s="493"/>
+      <c r="O55" s="493"/>
+      <c r="P55" s="493"/>
+      <c r="Q55" s="494"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -16661,11 +16664,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16682,22 +16685,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16841,14 +16844,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16859,17 +16865,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19612,23 +19615,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
-      <c r="C1" s="443" t="s">
+      <c r="B1" s="465"/>
+      <c r="C1" s="467" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="444"/>
-      <c r="L1" s="444"/>
-      <c r="M1" s="444"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="468"/>
+      <c r="J1" s="468"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="468"/>
+      <c r="M1" s="468"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19638,21 +19641,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="484" t="s">
+      <c r="P3" s="495" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -19670,14 +19673,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19687,15 +19690,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="485"/>
+      <c r="P4" s="496"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="494" t="s">
+      <c r="W4" s="478" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="494"/>
+      <c r="X4" s="478"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19756,8 +19759,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
+      <c r="W5" s="478"/>
+      <c r="X5" s="478"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20514,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="498">
+      <c r="W19" s="482">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20566,7 +20569,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="499"/>
+      <c r="W20" s="483"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20615,8 +20618,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="500"/>
-      <c r="X21" s="500"/>
+      <c r="W21" s="484"/>
+      <c r="X21" s="484"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20717,8 +20720,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="501"/>
-      <c r="X23" s="501"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20769,8 +20772,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="501"/>
-      <c r="X24" s="501"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20816,8 +20819,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="502"/>
-      <c r="X25" s="502"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20865,8 +20868,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="502"/>
-      <c r="X26" s="502"/>
+      <c r="W26" s="486"/>
+      <c r="X26" s="486"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20926,9 +20929,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="495"/>
-      <c r="X27" s="496"/>
-      <c r="Y27" s="497"/>
+      <c r="W27" s="479"/>
+      <c r="X27" s="480"/>
+      <c r="Y27" s="481"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20982,9 +20985,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="496"/>
-      <c r="X28" s="496"/>
-      <c r="Y28" s="497"/>
+      <c r="W28" s="480"/>
+      <c r="X28" s="480"/>
+      <c r="Y28" s="481"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21300,11 +21303,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="486">
+      <c r="M36" s="497">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="488">
+      <c r="N36" s="499">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -21312,7 +21315,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="490">
+      <c r="Q36" s="501">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -21331,13 +21334,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="487"/>
-      <c r="N37" s="489"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="500"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="491"/>
+      <c r="Q37" s="502"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21611,26 +21614,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="492"/>
+      <c r="L52" s="487"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -21639,29 +21642,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="493" t="s">
+      <c r="D54" s="488" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="493"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="472"/>
-      <c r="M54" s="478" t="s">
+      <c r="L54" s="461"/>
+      <c r="M54" s="489" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="479"/>
-      <c r="O54" s="479"/>
-      <c r="P54" s="479"/>
-      <c r="Q54" s="480"/>
+      <c r="N54" s="490"/>
+      <c r="O54" s="490"/>
+      <c r="P54" s="490"/>
+      <c r="Q54" s="491"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21675,11 +21678,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="481"/>
-      <c r="N55" s="482"/>
-      <c r="O55" s="482"/>
-      <c r="P55" s="482"/>
-      <c r="Q55" s="483"/>
+      <c r="M55" s="492"/>
+      <c r="N55" s="493"/>
+      <c r="O55" s="493"/>
+      <c r="P55" s="493"/>
+      <c r="Q55" s="494"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21697,11 +21700,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21718,22 +21721,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21877,20 +21880,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -21900,13 +21896,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24601,7 +24604,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
+      <c r="B1" s="465"/>
       <c r="C1" s="507" t="s">
         <v>323</v>
       </c>
@@ -24617,7 +24620,7 @@
       <c r="M1" s="508"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24627,21 +24630,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="484" t="s">
+      <c r="P3" s="495" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -24659,14 +24662,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24676,15 +24679,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="485"/>
+      <c r="P4" s="496"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="494" t="s">
+      <c r="W4" s="478" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="494"/>
+      <c r="X4" s="478"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24735,8 +24738,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
+      <c r="W5" s="478"/>
+      <c r="X5" s="478"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25500,7 +25503,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="498">
+      <c r="W19" s="482">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25553,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="499"/>
+      <c r="W20" s="483"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25602,8 +25605,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="500"/>
-      <c r="X21" s="500"/>
+      <c r="W21" s="484"/>
+      <c r="X21" s="484"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25703,8 +25706,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="501"/>
-      <c r="X23" s="501"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25759,8 +25762,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="501"/>
-      <c r="X24" s="501"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25805,8 +25808,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="502"/>
-      <c r="X25" s="502"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25854,8 +25857,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="502"/>
-      <c r="X26" s="502"/>
+      <c r="W26" s="486"/>
+      <c r="X26" s="486"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25909,9 +25912,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="495"/>
-      <c r="X27" s="496"/>
-      <c r="Y27" s="497"/>
+      <c r="W27" s="479"/>
+      <c r="X27" s="480"/>
+      <c r="Y27" s="481"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25965,9 +25968,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="496"/>
-      <c r="X28" s="496"/>
-      <c r="Y28" s="497"/>
+      <c r="W28" s="480"/>
+      <c r="X28" s="480"/>
+      <c r="Y28" s="481"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26272,11 +26275,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="486">
+      <c r="M36" s="497">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="488">
+      <c r="N36" s="499">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -26284,7 +26287,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="490">
+      <c r="Q36" s="501">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -26309,13 +26312,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="487"/>
-      <c r="N37" s="489"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="500"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="491"/>
+      <c r="Q37" s="502"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -26602,26 +26605,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="492"/>
+      <c r="L52" s="487"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -26630,22 +26633,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="493" t="s">
+      <c r="D54" s="488" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="493"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="472"/>
+      <c r="L54" s="461"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -26686,11 +26689,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26707,22 +26710,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -26866,20 +26869,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26895,6 +26884,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29650,7 +29653,7 @@
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29679,7 +29682,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="441"/>
+      <c r="B1" s="465"/>
       <c r="C1" s="507" t="s">
         <v>323</v>
       </c>
@@ -29695,7 +29698,7 @@
       <c r="M1" s="508"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="442"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29705,21 +29708,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="446"/>
+      <c r="B3" s="469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="470"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="447"/>
+      <c r="I3" s="471"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="484" t="s">
+      <c r="P3" s="495" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="505" t="s">
@@ -29737,14 +29740,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="E4" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="449"/>
-      <c r="H4" s="450" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="451"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29754,15 +29757,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="485"/>
+      <c r="P4" s="496"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="506"/>
-      <c r="W4" s="494" t="s">
+      <c r="W4" s="478" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="494"/>
+      <c r="X4" s="478"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29813,8 +29816,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
+      <c r="W5" s="478"/>
+      <c r="X5" s="478"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30536,44 +30539,46 @@
         <v>44606</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="35"/>
+        <v>17472</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>441</v>
+      </c>
       <c r="E19" s="27">
         <v>44606</v>
       </c>
       <c r="F19" s="28">
-        <v>0</v>
+        <v>132950</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="36">
         <v>44606</v>
       </c>
       <c r="I19" s="30">
-        <v>0</v>
+        <v>3720</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <v>72650</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>39309</v>
       </c>
       <c r="P19" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>133151</v>
+      </c>
+      <c r="Q19" s="326">
+        <f t="shared" si="1"/>
+        <v>201</v>
       </c>
       <c r="R19" s="320">
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="498">
+      <c r="W19" s="482">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30623,7 +30628,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="499"/>
+      <c r="W20" s="483"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30670,8 +30675,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="500"/>
-      <c r="X21" s="500"/>
+      <c r="W21" s="484"/>
+      <c r="X21" s="484"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30766,8 +30771,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="501"/>
-      <c r="X23" s="501"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30814,8 +30819,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="501"/>
-      <c r="X24" s="501"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30861,8 +30866,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="502"/>
-      <c r="X25" s="502"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30908,8 +30913,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="502"/>
-      <c r="X26" s="502"/>
+      <c r="W26" s="486"/>
+      <c r="X26" s="486"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30955,9 +30960,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="495"/>
-      <c r="X27" s="496"/>
-      <c r="Y27" s="497"/>
+      <c r="W27" s="479"/>
+      <c r="X27" s="480"/>
+      <c r="Y27" s="481"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31002,9 +31007,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="496"/>
-      <c r="X28" s="496"/>
-      <c r="Y28" s="497"/>
+      <c r="W28" s="480"/>
+      <c r="X28" s="480"/>
+      <c r="Y28" s="481"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31279,21 +31284,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="486">
+      <c r="M36" s="497">
         <f>SUM(M5:M35)</f>
-        <v>737462.5</v>
-      </c>
-      <c r="N36" s="488">
+        <v>810112.5</v>
+      </c>
+      <c r="N36" s="499">
         <f>SUM(N5:N35)</f>
-        <v>415610</v>
+        <v>454919</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="490">
+      <c r="Q36" s="501">
         <f>SUM(Q5:Q35)</f>
-        <v>1416.1199999999953</v>
+        <v>1617.1199999999953</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -31316,13 +31321,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="487"/>
-      <c r="N37" s="489"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="500"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="491"/>
+      <c r="Q37" s="502"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -31370,7 +31375,7 @@
       <c r="N39" s="278"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1380690.12</v>
+        <v>1513841.12</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -31561,7 +31566,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>177260.5</v>
+        <v>194732.5</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -31569,7 +31574,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1334708</v>
+        <v>1467658</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -31577,7 +31582,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>26998</v>
+        <v>30718</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -31603,50 +31608,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="452" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="453"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="454">
         <f>I50+L50</f>
-        <v>84494.68</v>
-      </c>
-      <c r="L52" s="492"/>
+        <v>88214.68</v>
+      </c>
+      <c r="L52" s="487"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="458"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1072952.82</v>
+        <v>1184710.82</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="493" t="s">
+      <c r="D54" s="488" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="493"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="460"/>
+      <c r="K54" s="461">
         <f>F56+F57+F58</f>
-        <v>1072952.82</v>
-      </c>
-      <c r="L54" s="472"/>
+        <v>1184710.82</v>
+      </c>
+      <c r="L54" s="461"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31680,18 +31685,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1072952.82</v>
+        <v>1184710.82</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="463">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="464"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31706,22 +31711,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="441" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="442"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="444"/>
+      <c r="K58" s="445">
         <f>K54+K56</f>
-        <v>-76787.589999999851</v>
-      </c>
-      <c r="L58" s="456"/>
+        <v>34970.410000000149</v>
+      </c>
+      <c r="L58" s="445"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -31865,6 +31870,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -31880,20 +31899,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="452">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1699,6 +1699,36 @@
   </si>
   <si>
     <t>LONGANIZA-QUESOS-JAMONES</t>
+  </si>
+  <si>
+    <t>JAMONES-POLLO-PICAÑA-CREMAS-VEERDURAS</t>
+  </si>
+  <si>
+    <t>CORTES-POLLO-SALCHICHAS- VARIOS</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-JAMONES-POLLO</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-POLLO-ROAS BEFF-JAMON-CHISTORRA</t>
+  </si>
+  <si>
+    <t>NOMINA # 8</t>
+  </si>
+  <si>
+    <t>SEMANA  #8</t>
+  </si>
+  <si>
+    <t>JAMON-PECHIUGA-SALCHICHONERIA VARIOS</t>
+  </si>
+  <si>
+    <t>CHORIZO-SALCHICHONERIA -POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-CHORIZO BLANCO</t>
+  </si>
+  <si>
+    <t>LONGANIZA-JAMON-´POLLO-</t>
   </si>
 </sst>
 </file>
@@ -3556,7 +3586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="548">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4448,6 +4478,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="47" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7332,23 +7364,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
-      <c r="C1" s="467" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="469" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
-      <c r="F1" s="468"/>
-      <c r="G1" s="468"/>
-      <c r="H1" s="468"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
-      <c r="K1" s="468"/>
-      <c r="L1" s="468"/>
-      <c r="M1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
+      <c r="F1" s="470"/>
+      <c r="G1" s="470"/>
+      <c r="H1" s="470"/>
+      <c r="I1" s="470"/>
+      <c r="J1" s="470"/>
+      <c r="K1" s="470"/>
+      <c r="L1" s="470"/>
+      <c r="M1" s="470"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="468"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7358,17 +7390,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="472"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="473"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7382,14 +7414,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -7399,10 +7431,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="448" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="447"/>
+      <c r="Q4" s="449"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8843,11 +8875,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="448">
+      <c r="M39" s="450">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="450">
+      <c r="N39" s="452">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8873,8 +8905,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="449"/>
-      <c r="N40" s="451"/>
+      <c r="M40" s="451"/>
+      <c r="N40" s="453"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9089,29 +9121,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="454" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="455"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="456">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="455"/>
-      <c r="M52" s="456">
+      <c r="L52" s="457"/>
+      <c r="M52" s="458">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="457"/>
+      <c r="N52" s="459"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="460"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9122,22 +9154,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="460" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="460"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="461" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="462"/>
+      <c r="K54" s="463">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="462"/>
+      <c r="L54" s="464"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9170,11 +9202,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="465">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="466"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9191,22 +9223,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="443" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="444"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="445" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="446"/>
+      <c r="K58" s="447">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="447"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -11030,7 +11062,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="503" t="s">
+      <c r="F80" s="505" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -11043,7 +11075,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="504"/>
+      <c r="F81" s="506"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -11353,11 +11385,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="530" t="s">
+      <c r="C1" s="532" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="530"/>
-      <c r="E1" s="531"/>
+      <c r="D1" s="532"/>
+      <c r="E1" s="533"/>
       <c r="F1" s="387"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -11375,12 +11407,12 @@
       <c r="F3" s="394"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="532" t="s">
+      <c r="B4" s="534" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="533"/>
-      <c r="D4" s="533"/>
-      <c r="E4" s="533"/>
+      <c r="C4" s="535"/>
+      <c r="D4" s="535"/>
+      <c r="E4" s="535"/>
       <c r="F4" s="395">
         <v>499853.16</v>
       </c>
@@ -11395,12 +11427,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="534" t="s">
+      <c r="B6" s="536" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="535"/>
-      <c r="D6" s="535"/>
-      <c r="E6" s="535"/>
+      <c r="C6" s="537"/>
+      <c r="D6" s="537"/>
+      <c r="E6" s="537"/>
       <c r="F6" s="395">
         <v>781251.72</v>
       </c>
@@ -11418,10 +11450,10 @@
       <c r="B8" s="388"/>
       <c r="C8" s="381"/>
       <c r="D8" s="382"/>
-      <c r="E8" s="536" t="s">
+      <c r="E8" s="538" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="538">
+      <c r="F8" s="540">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -11430,8 +11462,8 @@
       <c r="B9" s="388"/>
       <c r="C9" s="381"/>
       <c r="D9" s="382"/>
-      <c r="E9" s="537"/>
-      <c r="F9" s="539"/>
+      <c r="E9" s="539"/>
+      <c r="F9" s="541"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="388"/>
@@ -11455,12 +11487,12 @@
       <c r="F12" s="394"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="540" t="s">
+      <c r="B13" s="542" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="541"/>
-      <c r="D13" s="541"/>
-      <c r="E13" s="541"/>
+      <c r="C13" s="543"/>
+      <c r="D13" s="543"/>
+      <c r="E13" s="543"/>
       <c r="F13" s="395">
         <v>255460.4</v>
       </c>
@@ -11475,12 +11507,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="540" t="s">
+      <c r="B15" s="542" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="541"/>
-      <c r="D15" s="541"/>
-      <c r="E15" s="541"/>
+      <c r="C15" s="543"/>
+      <c r="D15" s="543"/>
+      <c r="E15" s="543"/>
       <c r="F15" s="395">
         <v>6037.34</v>
       </c>
@@ -11498,10 +11530,10 @@
       <c r="B17" s="388"/>
       <c r="C17" s="381"/>
       <c r="D17" s="382"/>
-      <c r="E17" s="542" t="s">
+      <c r="E17" s="544" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="544">
+      <c r="F17" s="546">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -11510,8 +11542,8 @@
       <c r="B18" s="388"/>
       <c r="C18" s="381"/>
       <c r="D18" s="382"/>
-      <c r="E18" s="543"/>
-      <c r="F18" s="545"/>
+      <c r="E18" s="545"/>
+      <c r="F18" s="547"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="388"/>
@@ -11535,22 +11567,22 @@
       <c r="F21" s="394"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="524" t="s">
+      <c r="B22" s="526" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="525"/>
-      <c r="D22" s="525"/>
-      <c r="E22" s="525"/>
-      <c r="F22" s="528">
+      <c r="C22" s="527"/>
+      <c r="D22" s="527"/>
+      <c r="E22" s="527"/>
+      <c r="F22" s="530">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="526"/>
-      <c r="C23" s="527"/>
-      <c r="D23" s="527"/>
-      <c r="E23" s="527"/>
-      <c r="F23" s="529"/>
+      <c r="B23" s="528"/>
+      <c r="C23" s="529"/>
+      <c r="D23" s="529"/>
+      <c r="E23" s="529"/>
+      <c r="F23" s="531"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="355"/>
@@ -12910,7 +12942,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="476" t="s">
+      <c r="B41" s="478" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -12942,7 +12974,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="477"/>
+      <c r="B42" s="479"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -14538,23 +14570,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
-      <c r="C1" s="467" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="469" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
-      <c r="F1" s="468"/>
-      <c r="G1" s="468"/>
-      <c r="H1" s="468"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
-      <c r="K1" s="468"/>
-      <c r="L1" s="468"/>
-      <c r="M1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
+      <c r="F1" s="470"/>
+      <c r="G1" s="470"/>
+      <c r="H1" s="470"/>
+      <c r="I1" s="470"/>
+      <c r="J1" s="470"/>
+      <c r="K1" s="470"/>
+      <c r="L1" s="470"/>
+      <c r="M1" s="470"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="468"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14564,21 +14596,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="472"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="473"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="497" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14593,14 +14625,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14610,14 +14642,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="478" t="s">
+      <c r="W4" s="480" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="478"/>
+      <c r="X4" s="480"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14668,8 +14700,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
+      <c r="W5" s="480"/>
+      <c r="X5" s="480"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15440,7 +15472,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="482">
+      <c r="W19" s="484">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -15492,7 +15524,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="483"/>
+      <c r="W20" s="485"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15541,8 +15573,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="484"/>
-      <c r="X21" s="484"/>
+      <c r="W21" s="486"/>
+      <c r="X21" s="486"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15643,8 +15675,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
+      <c r="W23" s="487"/>
+      <c r="X23" s="487"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15698,8 +15730,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
+      <c r="W24" s="487"/>
+      <c r="X24" s="487"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15745,8 +15777,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="486"/>
-      <c r="X25" s="486"/>
+      <c r="W25" s="488"/>
+      <c r="X25" s="488"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15797,8 +15829,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="486"/>
-      <c r="X26" s="486"/>
+      <c r="W26" s="488"/>
+      <c r="X26" s="488"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15846,9 +15878,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="479"/>
-      <c r="X27" s="480"/>
-      <c r="Y27" s="481"/>
+      <c r="W27" s="481"/>
+      <c r="X27" s="482"/>
+      <c r="Y27" s="483"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15898,9 +15930,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="480"/>
-      <c r="X28" s="480"/>
-      <c r="Y28" s="481"/>
+      <c r="W28" s="482"/>
+      <c r="X28" s="482"/>
+      <c r="Y28" s="483"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16235,11 +16267,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="497">
+      <c r="M36" s="499">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="499">
+      <c r="N36" s="501">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -16247,7 +16279,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="501">
+      <c r="Q36" s="503">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -16282,13 +16314,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="498"/>
-      <c r="N37" s="500"/>
+      <c r="M37" s="500"/>
+      <c r="N37" s="502"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="502"/>
+      <c r="Q37" s="504"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -16578,26 +16610,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="454" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="455"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="456">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="487"/>
+      <c r="L52" s="489"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="460"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -16606,29 +16638,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="488" t="s">
+      <c r="D54" s="490" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="488"/>
+      <c r="E54" s="490"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="461" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="462"/>
+      <c r="K54" s="463">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="461"/>
-      <c r="M54" s="489" t="s">
+      <c r="L54" s="463"/>
+      <c r="M54" s="491" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="490"/>
-      <c r="O54" s="490"/>
-      <c r="P54" s="490"/>
-      <c r="Q54" s="491"/>
+      <c r="N54" s="492"/>
+      <c r="O54" s="492"/>
+      <c r="P54" s="492"/>
+      <c r="Q54" s="493"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -16642,11 +16674,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="492"/>
-      <c r="N55" s="493"/>
-      <c r="O55" s="493"/>
-      <c r="P55" s="493"/>
-      <c r="Q55" s="494"/>
+      <c r="M55" s="494"/>
+      <c r="N55" s="495"/>
+      <c r="O55" s="495"/>
+      <c r="P55" s="495"/>
+      <c r="Q55" s="496"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -16664,11 +16696,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="465">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="466"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16685,22 +16717,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="443" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="444"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="445" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="446"/>
+      <c r="K58" s="447">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="447"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -19290,7 +19322,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="503" t="s">
+      <c r="F87" s="505" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -19303,7 +19335,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="504"/>
+      <c r="F88" s="506"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -19615,23 +19647,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
-      <c r="C1" s="467" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="469" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
-      <c r="F1" s="468"/>
-      <c r="G1" s="468"/>
-      <c r="H1" s="468"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
-      <c r="K1" s="468"/>
-      <c r="L1" s="468"/>
-      <c r="M1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
+      <c r="F1" s="470"/>
+      <c r="G1" s="470"/>
+      <c r="H1" s="470"/>
+      <c r="I1" s="470"/>
+      <c r="J1" s="470"/>
+      <c r="K1" s="470"/>
+      <c r="L1" s="470"/>
+      <c r="M1" s="470"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="468"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19641,24 +19673,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="472"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="473"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="497" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="505" t="s">
+      <c r="R3" s="507" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19673,14 +19705,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19690,15 +19722,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="506"/>
-      <c r="W4" s="478" t="s">
+      <c r="R4" s="508"/>
+      <c r="W4" s="480" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="478"/>
+      <c r="X4" s="480"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19759,8 +19791,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
+      <c r="W5" s="480"/>
+      <c r="X5" s="480"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20517,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="482">
+      <c r="W19" s="484">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20569,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="483"/>
+      <c r="W20" s="485"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20618,8 +20650,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="484"/>
-      <c r="X21" s="484"/>
+      <c r="W21" s="486"/>
+      <c r="X21" s="486"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20720,8 +20752,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
+      <c r="W23" s="487"/>
+      <c r="X23" s="487"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20772,8 +20804,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
+      <c r="W24" s="487"/>
+      <c r="X24" s="487"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20819,8 +20851,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="486"/>
-      <c r="X25" s="486"/>
+      <c r="W25" s="488"/>
+      <c r="X25" s="488"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20868,8 +20900,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="486"/>
-      <c r="X26" s="486"/>
+      <c r="W26" s="488"/>
+      <c r="X26" s="488"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20929,9 +20961,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="479"/>
-      <c r="X27" s="480"/>
-      <c r="Y27" s="481"/>
+      <c r="W27" s="481"/>
+      <c r="X27" s="482"/>
+      <c r="Y27" s="483"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20985,9 +21017,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="480"/>
-      <c r="X28" s="480"/>
-      <c r="Y28" s="481"/>
+      <c r="W28" s="482"/>
+      <c r="X28" s="482"/>
+      <c r="Y28" s="483"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21303,11 +21335,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="497">
+      <c r="M36" s="499">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="499">
+      <c r="N36" s="501">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -21315,7 +21347,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="501">
+      <c r="Q36" s="503">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -21334,13 +21366,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="498"/>
-      <c r="N37" s="500"/>
+      <c r="M37" s="500"/>
+      <c r="N37" s="502"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="502"/>
+      <c r="Q37" s="504"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21614,26 +21646,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="454" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="455"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="456">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="487"/>
+      <c r="L52" s="489"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="460"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -21642,29 +21674,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="488" t="s">
+      <c r="D54" s="490" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="488"/>
+      <c r="E54" s="490"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="461" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="462"/>
+      <c r="K54" s="463">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="461"/>
-      <c r="M54" s="489" t="s">
+      <c r="L54" s="463"/>
+      <c r="M54" s="491" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="490"/>
-      <c r="O54" s="490"/>
-      <c r="P54" s="490"/>
-      <c r="Q54" s="491"/>
+      <c r="N54" s="492"/>
+      <c r="O54" s="492"/>
+      <c r="P54" s="492"/>
+      <c r="Q54" s="493"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21678,11 +21710,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="492"/>
-      <c r="N55" s="493"/>
-      <c r="O55" s="493"/>
-      <c r="P55" s="493"/>
-      <c r="Q55" s="494"/>
+      <c r="M55" s="494"/>
+      <c r="N55" s="495"/>
+      <c r="O55" s="495"/>
+      <c r="P55" s="495"/>
+      <c r="Q55" s="496"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21700,11 +21732,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="465">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="466"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21721,22 +21753,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="443" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="444"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="445" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="446"/>
+      <c r="K58" s="447">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="447"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -24299,7 +24331,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="503" t="s">
+      <c r="F75" s="505" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -24312,7 +24344,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="504"/>
+      <c r="F76" s="506"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -24604,23 +24636,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
-      <c r="C1" s="507" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="509" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
-      <c r="F1" s="508"/>
-      <c r="G1" s="508"/>
-      <c r="H1" s="508"/>
-      <c r="I1" s="508"/>
-      <c r="J1" s="508"/>
-      <c r="K1" s="508"/>
-      <c r="L1" s="508"/>
-      <c r="M1" s="508"/>
+      <c r="D1" s="510"/>
+      <c r="E1" s="510"/>
+      <c r="F1" s="510"/>
+      <c r="G1" s="510"/>
+      <c r="H1" s="510"/>
+      <c r="I1" s="510"/>
+      <c r="J1" s="510"/>
+      <c r="K1" s="510"/>
+      <c r="L1" s="510"/>
+      <c r="M1" s="510"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="468"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24630,24 +24662,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="472"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="473"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="497" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="505" t="s">
+      <c r="R3" s="507" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24662,14 +24694,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24679,15 +24711,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="506"/>
-      <c r="W4" s="478" t="s">
+      <c r="R4" s="508"/>
+      <c r="W4" s="480" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="478"/>
+      <c r="X4" s="480"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24738,8 +24770,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
+      <c r="W5" s="480"/>
+      <c r="X5" s="480"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25503,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="482">
+      <c r="W19" s="484">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25556,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="483"/>
+      <c r="W20" s="485"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25605,8 +25637,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="484"/>
-      <c r="X21" s="484"/>
+      <c r="W21" s="486"/>
+      <c r="X21" s="486"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25706,8 +25738,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
+      <c r="W23" s="487"/>
+      <c r="X23" s="487"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25762,8 +25794,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
+      <c r="W24" s="487"/>
+      <c r="X24" s="487"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25808,8 +25840,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="486"/>
-      <c r="X25" s="486"/>
+      <c r="W25" s="488"/>
+      <c r="X25" s="488"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25857,8 +25889,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="486"/>
-      <c r="X26" s="486"/>
+      <c r="W26" s="488"/>
+      <c r="X26" s="488"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25912,9 +25944,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="479"/>
-      <c r="X27" s="480"/>
-      <c r="Y27" s="481"/>
+      <c r="W27" s="481"/>
+      <c r="X27" s="482"/>
+      <c r="Y27" s="483"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25968,9 +26000,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="480"/>
-      <c r="X28" s="480"/>
-      <c r="Y28" s="481"/>
+      <c r="W28" s="482"/>
+      <c r="X28" s="482"/>
+      <c r="Y28" s="483"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26275,11 +26307,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="497">
+      <c r="M36" s="499">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="499">
+      <c r="N36" s="501">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -26287,7 +26319,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="501">
+      <c r="Q36" s="503">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -26312,13 +26344,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="498"/>
-      <c r="N37" s="500"/>
+      <c r="M37" s="500"/>
+      <c r="N37" s="502"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="502"/>
+      <c r="Q37" s="504"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -26605,26 +26637,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="454" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="455"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="456">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="487"/>
+      <c r="L52" s="489"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="460"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -26633,22 +26665,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="488" t="s">
+      <c r="D54" s="490" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="488"/>
+      <c r="E54" s="490"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="461" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="462"/>
+      <c r="K54" s="463">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="461"/>
+      <c r="L54" s="463"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -26689,11 +26721,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="465">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="466"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26710,22 +26742,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="443" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="444"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="445" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="446"/>
+      <c r="K58" s="447">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="445"/>
+      <c r="L58" s="447"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28558,12 +28590,12 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="509" t="s">
+      <c r="B43" s="511" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="510"/>
-      <c r="D43" s="510"/>
-      <c r="E43" s="511"/>
+      <c r="C43" s="512"/>
+      <c r="D43" s="512"/>
+      <c r="E43" s="513"/>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28588,10 +28620,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="512"/>
-      <c r="C44" s="513"/>
-      <c r="D44" s="513"/>
-      <c r="E44" s="514"/>
+      <c r="B44" s="514"/>
+      <c r="C44" s="515"/>
+      <c r="D44" s="515"/>
+      <c r="E44" s="516"/>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28616,10 +28648,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="515"/>
-      <c r="C45" s="516"/>
-      <c r="D45" s="516"/>
-      <c r="E45" s="517"/>
+      <c r="B45" s="517"/>
+      <c r="C45" s="518"/>
+      <c r="D45" s="518"/>
+      <c r="E45" s="519"/>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28703,11 +28735,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="518" t="s">
+      <c r="J48" s="520" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="519"/>
-      <c r="L48" s="520"/>
+      <c r="K48" s="521"/>
+      <c r="L48" s="522"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -28725,9 +28757,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="521"/>
-      <c r="K49" s="522"/>
-      <c r="L49" s="523"/>
+      <c r="J49" s="523"/>
+      <c r="K49" s="524"/>
+      <c r="L49" s="525"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -29354,7 +29386,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="503" t="s">
+      <c r="F80" s="505" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -29367,7 +29399,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="504"/>
+      <c r="F81" s="506"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -29652,8 +29684,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29682,23 +29714,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="465"/>
-      <c r="C1" s="507" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="509" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
-      <c r="F1" s="508"/>
-      <c r="G1" s="508"/>
-      <c r="H1" s="508"/>
-      <c r="I1" s="508"/>
-      <c r="J1" s="508"/>
-      <c r="K1" s="508"/>
-      <c r="L1" s="508"/>
-      <c r="M1" s="508"/>
+      <c r="D1" s="510"/>
+      <c r="E1" s="510"/>
+      <c r="F1" s="510"/>
+      <c r="G1" s="510"/>
+      <c r="H1" s="510"/>
+      <c r="I1" s="510"/>
+      <c r="J1" s="510"/>
+      <c r="K1" s="510"/>
+      <c r="L1" s="510"/>
+      <c r="M1" s="510"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="466"/>
+      <c r="B2" s="468"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29708,24 +29740,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="469" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="470"/>
+      <c r="B3" s="471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="472"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="471" t="s">
+      <c r="H3" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="471"/>
+      <c r="I3" s="473"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="497" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="505" t="s">
+      <c r="R3" s="507" t="s">
         <v>216</v>
       </c>
     </row>
@@ -29740,14 +29772,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29757,15 +29789,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="506"/>
-      <c r="W4" s="478" t="s">
+      <c r="R4" s="508"/>
+      <c r="W4" s="480" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="478"/>
+      <c r="X4" s="480"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29816,8 +29848,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="478"/>
-      <c r="X5" s="478"/>
+      <c r="W5" s="480"/>
+      <c r="X5" s="480"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30360,7 +30392,7 @@
         <f t="shared" si="0"/>
         <v>94834</v>
       </c>
-      <c r="Q15" s="326">
+      <c r="Q15" s="442">
         <f t="shared" si="1"/>
         <v>1515</v>
       </c>
@@ -30578,7 +30610,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="482">
+      <c r="W19" s="484">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30591,34 +30623,36 @@
         <v>44607</v>
       </c>
       <c r="C20" s="25">
-        <v>0</v>
-      </c>
-      <c r="D20" s="35"/>
+        <v>36451</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>442</v>
+      </c>
       <c r="E20" s="27">
         <v>44607</v>
       </c>
       <c r="F20" s="28">
-        <v>0</v>
+        <v>72030</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="36">
         <v>44607</v>
       </c>
       <c r="I20" s="30">
-        <v>0</v>
+        <v>4564.5</v>
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <v>13632.5</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="P20" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72030</v>
       </c>
       <c r="Q20" s="318">
         <f t="shared" si="1"/>
@@ -30628,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="483"/>
+      <c r="W20" s="485"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30638,45 +30672,47 @@
         <v>44608</v>
       </c>
       <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="35"/>
+        <v>13737</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>433</v>
+      </c>
       <c r="E21" s="27">
         <v>44608</v>
       </c>
       <c r="F21" s="28">
-        <v>0</v>
+        <v>88777</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="36">
         <v>44608</v>
       </c>
       <c r="I21" s="30">
-        <v>0</v>
+        <v>778.5</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="48"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>3529+18072+51674.5</f>
+        <v>73275.5</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>17543</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="320">
-        <v>0</v>
+        <v>105334</v>
+      </c>
+      <c r="Q21" s="441">
+        <v>-1515</v>
+      </c>
+      <c r="R21" s="407">
+        <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="484"/>
-      <c r="X21" s="484"/>
+      <c r="W21" s="486"/>
+      <c r="X21" s="486"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30686,34 +30722,36 @@
         <v>44609</v>
       </c>
       <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="35"/>
+        <v>39620</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>443</v>
+      </c>
       <c r="E22" s="27">
         <v>44609</v>
       </c>
       <c r="F22" s="28">
-        <v>0</v>
+        <v>78137</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="36">
         <v>44609</v>
       </c>
       <c r="I22" s="30">
-        <v>0</v>
+        <v>1308.5</v>
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <v>14143.5</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>23065</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78137</v>
       </c>
       <c r="Q22" s="318">
         <f t="shared" si="1"/>
@@ -30734,34 +30772,36 @@
         <v>44610</v>
       </c>
       <c r="C23" s="25">
-        <v>0</v>
-      </c>
-      <c r="D23" s="35"/>
+        <v>12767</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>444</v>
+      </c>
       <c r="E23" s="27">
         <v>44610</v>
       </c>
       <c r="F23" s="28">
-        <v>0</v>
+        <v>103716</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="36">
         <v>44610</v>
       </c>
       <c r="I23" s="30">
-        <v>0</v>
+        <v>7591</v>
       </c>
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <v>51898</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>31460</v>
       </c>
       <c r="P23" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103716</v>
       </c>
       <c r="Q23" s="318">
         <f t="shared" si="1"/>
@@ -30771,8 +30811,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
+      <c r="W23" s="487"/>
+      <c r="X23" s="487"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30782,34 +30822,42 @@
         <v>44611</v>
       </c>
       <c r="C24" s="25">
-        <v>0</v>
-      </c>
-      <c r="D24" s="42"/>
+        <v>18706</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>445</v>
+      </c>
       <c r="E24" s="27">
         <v>44611</v>
       </c>
       <c r="F24" s="28">
-        <v>0</v>
+        <v>167635</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="36">
         <v>44611</v>
       </c>
       <c r="I24" s="30">
-        <v>0</v>
-      </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
+        <v>4947</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44611</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>446</v>
+      </c>
+      <c r="L24" s="52">
+        <v>12038</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <v>79954</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>51990</v>
       </c>
       <c r="P24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>N24+M24+L24+I24+C24</f>
+        <v>167635</v>
       </c>
       <c r="Q24" s="318">
         <f t="shared" si="1"/>
@@ -30819,8 +30867,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
+      <c r="W24" s="487"/>
+      <c r="X24" s="487"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30830,44 +30878,46 @@
         <v>44612</v>
       </c>
       <c r="C25" s="25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="35"/>
+        <v>22985.5</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>448</v>
+      </c>
       <c r="E25" s="27">
         <v>44612</v>
       </c>
       <c r="F25" s="28">
-        <v>0</v>
+        <v>78991</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="36">
         <v>44612</v>
       </c>
       <c r="I25" s="30">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <v>28600</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>25290</v>
       </c>
       <c r="P25" s="283">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78995.5</v>
       </c>
       <c r="Q25" s="318">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="486"/>
-      <c r="X25" s="486"/>
+      <c r="W25" s="488"/>
+      <c r="X25" s="488"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30877,34 +30927,36 @@
         <v>44613</v>
       </c>
       <c r="C26" s="25">
-        <v>0</v>
-      </c>
-      <c r="D26" s="35"/>
+        <v>9006</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>449</v>
+      </c>
       <c r="E26" s="27">
         <v>44613</v>
       </c>
       <c r="F26" s="28">
-        <v>0</v>
+        <v>97381</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="36">
         <v>44613</v>
       </c>
       <c r="I26" s="30">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <v>42345</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>45003</v>
       </c>
       <c r="P26" s="284">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97381</v>
       </c>
       <c r="Q26" s="318">
         <f t="shared" si="1"/>
@@ -30913,8 +30965,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="486"/>
-      <c r="X26" s="486"/>
+      <c r="W26" s="488"/>
+      <c r="X26" s="488"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30924,45 +30976,47 @@
         <v>44614</v>
       </c>
       <c r="C27" s="25">
-        <v>0</v>
-      </c>
-      <c r="D27" s="42"/>
+        <v>7975.9</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>450</v>
+      </c>
       <c r="E27" s="27">
         <v>44614</v>
       </c>
       <c r="F27" s="28">
-        <v>0</v>
+        <v>55967</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="36">
         <v>44614</v>
       </c>
       <c r="I27" s="30">
-        <v>0</v>
+        <v>1430.5</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <v>26862</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>19699</v>
       </c>
       <c r="P27" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55967.4</v>
       </c>
       <c r="Q27" s="318">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.40000000000145519</v>
       </c>
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="479"/>
-      <c r="X27" s="480"/>
-      <c r="Y27" s="481"/>
+      <c r="W27" s="481"/>
+      <c r="X27" s="482"/>
+      <c r="Y27" s="483"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30971,34 +31025,37 @@
         <v>44615</v>
       </c>
       <c r="C28" s="25">
-        <v>0</v>
-      </c>
-      <c r="D28" s="42"/>
+        <v>14054</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>451</v>
+      </c>
       <c r="E28" s="27">
         <v>44615</v>
       </c>
       <c r="F28" s="28">
-        <v>0</v>
+        <v>75249</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="36">
         <v>44615</v>
       </c>
       <c r="I28" s="30">
-        <v>0</v>
+        <v>2110</v>
       </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>1001+259+46764</f>
+        <v>48024</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>11061</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75249</v>
       </c>
       <c r="Q28" s="318">
         <f t="shared" si="1"/>
@@ -31007,9 +31064,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="480"/>
-      <c r="X28" s="480"/>
-      <c r="Y28" s="481"/>
+      <c r="W28" s="482"/>
+      <c r="X28" s="482"/>
+      <c r="Y28" s="483"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31284,21 +31341,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="497">
+      <c r="M36" s="499">
         <f>SUM(M5:M35)</f>
-        <v>810112.5</v>
-      </c>
-      <c r="N36" s="499">
+        <v>1188847</v>
+      </c>
+      <c r="N36" s="501">
         <f>SUM(N5:N35)</f>
-        <v>454919</v>
+        <v>697412</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="501">
+      <c r="Q36" s="503">
         <f>SUM(Q5:Q35)</f>
-        <v>1617.1199999999953</v>
+        <v>107.0199999999968</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -31321,13 +31378,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="498"/>
-      <c r="N37" s="500"/>
+      <c r="M37" s="500"/>
+      <c r="N37" s="502"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="502"/>
+      <c r="Q37" s="504"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -31368,14 +31425,20 @@
       <c r="G39" s="2"/>
       <c r="H39" s="36"/>
       <c r="I39" s="71"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="177"/>
-      <c r="L39" s="61"/>
+      <c r="J39" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="K39" s="177" t="s">
+        <v>447</v>
+      </c>
+      <c r="L39" s="61">
+        <v>14981.03</v>
+      </c>
       <c r="M39" s="278"/>
       <c r="N39" s="278"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1513841.12</v>
+        <v>2348286.02</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -31566,7 +31629,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>194732.5</v>
+        <v>370034.9</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -31574,7 +31637,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1467658</v>
+        <v>2285541</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -31582,7 +31645,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>30718</v>
+        <v>56595</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -31590,7 +31653,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>57496.679999999993</v>
+        <v>84515.709999999992</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -31608,50 +31671,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="452" t="s">
+      <c r="H52" s="454" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="453"/>
+      <c r="I52" s="455"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="454">
+      <c r="K52" s="456">
         <f>I50+L50</f>
-        <v>88214.68</v>
-      </c>
-      <c r="L52" s="487"/>
+        <v>141110.71</v>
+      </c>
+      <c r="L52" s="489"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="458" t="s">
+      <c r="D53" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="458"/>
+      <c r="E53" s="460"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1184710.82</v>
+        <v>1774395.3900000001</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="488" t="s">
+      <c r="D54" s="490" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="488"/>
+      <c r="E54" s="490"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="459" t="s">
+      <c r="I54" s="461" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="460"/>
-      <c r="K54" s="461">
+      <c r="J54" s="462"/>
+      <c r="K54" s="463">
         <f>F56+F57+F58</f>
-        <v>1184710.82</v>
-      </c>
-      <c r="L54" s="461"/>
+        <v>1774395.3900000001</v>
+      </c>
+      <c r="L54" s="463"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31685,18 +31748,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1184710.82</v>
+        <v>1774395.3900000001</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="463">
+      <c r="K56" s="465">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="464"/>
+      <c r="L56" s="466"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31711,22 +31774,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="441" t="s">
+      <c r="D58" s="443" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="442"/>
+      <c r="E58" s="444"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="443" t="s">
+      <c r="I58" s="445" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="444"/>
-      <c r="K58" s="445">
+      <c r="J58" s="446"/>
+      <c r="K58" s="447">
         <f>K54+K56</f>
-        <v>34970.410000000149</v>
-      </c>
-      <c r="L58" s="445"/>
+        <v>624654.98000000021</v>
+      </c>
+      <c r="L58" s="447"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="460">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1729,6 +1729,30 @@
   </si>
   <si>
     <t>LONGANIZA-JAMON-´POLLO-</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>Odelpa</t>
+  </si>
+  <si>
+    <t>CHORIZO-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>Odelpa Y zav</t>
+  </si>
+  <si>
+    <t>POLLO-CHISTORRA-QUESOS</t>
+  </si>
+  <si>
+    <t>NOMINA #9</t>
+  </si>
+  <si>
+    <t>SEMANA # 9</t>
+  </si>
+  <si>
+    <t>ENCHILADA</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1768,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2167,6 +2191,22 @@
       <u/>
       <sz val="18"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3586,7 +3626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="548">
+  <cellXfs count="559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4480,6 +4520,39 @@
     </xf>
     <xf numFmtId="44" fontId="47" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4552,45 +4625,60 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4618,54 +4706,6 @@
     <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4793,6 +4833,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="55" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="13" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4804,11 +4865,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF800000"/>
       <color rgb="FF6600FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FF99"/>
@@ -7364,23 +7425,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="467"/>
-      <c r="C1" s="469" t="s">
+      <c r="B1" s="443"/>
+      <c r="C1" s="445" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
-      <c r="F1" s="470"/>
-      <c r="G1" s="470"/>
-      <c r="H1" s="470"/>
-      <c r="I1" s="470"/>
-      <c r="J1" s="470"/>
-      <c r="K1" s="470"/>
-      <c r="L1" s="470"/>
-      <c r="M1" s="470"/>
+      <c r="D1" s="446"/>
+      <c r="E1" s="446"/>
+      <c r="F1" s="446"/>
+      <c r="G1" s="446"/>
+      <c r="H1" s="446"/>
+      <c r="I1" s="446"/>
+      <c r="J1" s="446"/>
+      <c r="K1" s="446"/>
+      <c r="L1" s="446"/>
+      <c r="M1" s="446"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="468"/>
+      <c r="B2" s="444"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7390,17 +7451,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="471" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="472"/>
+      <c r="B3" s="447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="448"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="473" t="s">
+      <c r="H3" s="449" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="473"/>
+      <c r="I3" s="449"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7414,14 +7475,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="451"/>
+      <c r="H4" s="452" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="453"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -7431,10 +7492,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="448" t="s">
+      <c r="P4" s="459" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="449"/>
+      <c r="Q4" s="460"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8875,11 +8936,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="450">
+      <c r="M39" s="461">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="452">
+      <c r="N39" s="463">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8905,8 +8966,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="451"/>
-      <c r="N40" s="453"/>
+      <c r="M40" s="462"/>
+      <c r="N40" s="464"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9121,29 +9182,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="454" t="s">
+      <c r="H52" s="465" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="455"/>
+      <c r="I52" s="466"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="456">
+      <c r="K52" s="467">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="457"/>
-      <c r="M52" s="458">
+      <c r="L52" s="468"/>
+      <c r="M52" s="469">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="459"/>
+      <c r="N52" s="470"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="460" t="s">
+      <c r="D53" s="471" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="460"/>
+      <c r="E53" s="471"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9154,22 +9215,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="460" t="s">
+      <c r="D54" s="471" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="460"/>
+      <c r="E54" s="471"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="461" t="s">
+      <c r="I54" s="472" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="462"/>
-      <c r="K54" s="463">
+      <c r="J54" s="473"/>
+      <c r="K54" s="474">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="464"/>
+      <c r="L54" s="475"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9202,11 +9263,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="465">
+      <c r="K56" s="476">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="466"/>
+      <c r="L56" s="477"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9223,22 +9284,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="443" t="s">
+      <c r="D58" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="444"/>
+      <c r="E58" s="455"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="445" t="s">
+      <c r="I58" s="456" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="446"/>
-      <c r="K58" s="447">
+      <c r="J58" s="457"/>
+      <c r="K58" s="458">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="447"/>
+      <c r="L58" s="458"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -9382,12 +9443,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -9402,6 +9457,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14570,23 +14631,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="467"/>
-      <c r="C1" s="469" t="s">
+      <c r="B1" s="443"/>
+      <c r="C1" s="445" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
-      <c r="F1" s="470"/>
-      <c r="G1" s="470"/>
-      <c r="H1" s="470"/>
-      <c r="I1" s="470"/>
-      <c r="J1" s="470"/>
-      <c r="K1" s="470"/>
-      <c r="L1" s="470"/>
-      <c r="M1" s="470"/>
+      <c r="D1" s="446"/>
+      <c r="E1" s="446"/>
+      <c r="F1" s="446"/>
+      <c r="G1" s="446"/>
+      <c r="H1" s="446"/>
+      <c r="I1" s="446"/>
+      <c r="J1" s="446"/>
+      <c r="K1" s="446"/>
+      <c r="L1" s="446"/>
+      <c r="M1" s="446"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="468"/>
+      <c r="B2" s="444"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14596,21 +14657,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="471" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="472"/>
+      <c r="B3" s="447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="448"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="473" t="s">
+      <c r="H3" s="449" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="473"/>
+      <c r="I3" s="449"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="486" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14625,14 +14686,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="451"/>
+      <c r="H4" s="452" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="453"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14642,14 +14703,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="487"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="480" t="s">
+      <c r="W4" s="496" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="480"/>
+      <c r="X4" s="496"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14700,8 +14761,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="480"/>
-      <c r="X5" s="480"/>
+      <c r="W5" s="496"/>
+      <c r="X5" s="496"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15472,7 +15533,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="484">
+      <c r="W19" s="500">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -15524,7 +15585,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="485"/>
+      <c r="W20" s="501"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15573,8 +15634,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="486"/>
-      <c r="X21" s="486"/>
+      <c r="W21" s="502"/>
+      <c r="X21" s="502"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15675,8 +15736,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="487"/>
-      <c r="X23" s="487"/>
+      <c r="W23" s="503"/>
+      <c r="X23" s="503"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15730,8 +15791,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="487"/>
-      <c r="X24" s="487"/>
+      <c r="W24" s="503"/>
+      <c r="X24" s="503"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15777,8 +15838,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="488"/>
-      <c r="X25" s="488"/>
+      <c r="W25" s="504"/>
+      <c r="X25" s="504"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15829,8 +15890,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="488"/>
-      <c r="X26" s="488"/>
+      <c r="W26" s="504"/>
+      <c r="X26" s="504"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15878,9 +15939,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="481"/>
-      <c r="X27" s="482"/>
-      <c r="Y27" s="483"/>
+      <c r="W27" s="497"/>
+      <c r="X27" s="498"/>
+      <c r="Y27" s="499"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15930,9 +15991,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="482"/>
-      <c r="X28" s="482"/>
-      <c r="Y28" s="483"/>
+      <c r="W28" s="498"/>
+      <c r="X28" s="498"/>
+      <c r="Y28" s="499"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16267,11 +16328,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="499">
+      <c r="M36" s="488">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="501">
+      <c r="N36" s="490">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -16279,7 +16340,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="503">
+      <c r="Q36" s="492">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -16314,13 +16375,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="500"/>
-      <c r="N37" s="502"/>
+      <c r="M37" s="489"/>
+      <c r="N37" s="491"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="504"/>
+      <c r="Q37" s="493"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -16610,26 +16671,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="454" t="s">
+      <c r="H52" s="465" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="455"/>
+      <c r="I52" s="466"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="456">
+      <c r="K52" s="467">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="489"/>
+      <c r="L52" s="494"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="460" t="s">
+      <c r="D53" s="471" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="460"/>
+      <c r="E53" s="471"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -16638,29 +16699,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="490" t="s">
+      <c r="D54" s="495" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="490"/>
+      <c r="E54" s="495"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="461" t="s">
+      <c r="I54" s="472" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="462"/>
-      <c r="K54" s="463">
+      <c r="J54" s="473"/>
+      <c r="K54" s="474">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="463"/>
-      <c r="M54" s="491" t="s">
+      <c r="L54" s="474"/>
+      <c r="M54" s="480" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="492"/>
-      <c r="O54" s="492"/>
-      <c r="P54" s="492"/>
-      <c r="Q54" s="493"/>
+      <c r="N54" s="481"/>
+      <c r="O54" s="481"/>
+      <c r="P54" s="481"/>
+      <c r="Q54" s="482"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -16674,11 +16735,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="494"/>
-      <c r="N55" s="495"/>
-      <c r="O55" s="495"/>
-      <c r="P55" s="495"/>
-      <c r="Q55" s="496"/>
+      <c r="M55" s="483"/>
+      <c r="N55" s="484"/>
+      <c r="O55" s="484"/>
+      <c r="P55" s="484"/>
+      <c r="Q55" s="485"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -16696,11 +16757,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="465">
+      <c r="K56" s="476">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="466"/>
+      <c r="L56" s="477"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16717,22 +16778,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="443" t="s">
+      <c r="D58" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="444"/>
+      <c r="E58" s="455"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="445" t="s">
+      <c r="I58" s="456" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="446"/>
-      <c r="K58" s="447">
+      <c r="J58" s="457"/>
+      <c r="K58" s="458">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="447"/>
+      <c r="L58" s="458"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16876,17 +16937,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16897,14 +16955,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19647,23 +19708,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="467"/>
-      <c r="C1" s="469" t="s">
+      <c r="B1" s="443"/>
+      <c r="C1" s="445" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
-      <c r="F1" s="470"/>
-      <c r="G1" s="470"/>
-      <c r="H1" s="470"/>
-      <c r="I1" s="470"/>
-      <c r="J1" s="470"/>
-      <c r="K1" s="470"/>
-      <c r="L1" s="470"/>
-      <c r="M1" s="470"/>
+      <c r="D1" s="446"/>
+      <c r="E1" s="446"/>
+      <c r="F1" s="446"/>
+      <c r="G1" s="446"/>
+      <c r="H1" s="446"/>
+      <c r="I1" s="446"/>
+      <c r="J1" s="446"/>
+      <c r="K1" s="446"/>
+      <c r="L1" s="446"/>
+      <c r="M1" s="446"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="468"/>
+      <c r="B2" s="444"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19673,21 +19734,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="471" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="472"/>
+      <c r="B3" s="447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="448"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="473" t="s">
+      <c r="H3" s="449" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="473"/>
+      <c r="I3" s="449"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="486" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="507" t="s">
@@ -19705,14 +19766,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="451"/>
+      <c r="H4" s="452" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="453"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19722,15 +19783,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="487"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="508"/>
-      <c r="W4" s="480" t="s">
+      <c r="W4" s="496" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="480"/>
+      <c r="X4" s="496"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19791,8 +19852,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="480"/>
-      <c r="X5" s="480"/>
+      <c r="W5" s="496"/>
+      <c r="X5" s="496"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20549,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="484">
+      <c r="W19" s="500">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20601,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="485"/>
+      <c r="W20" s="501"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20650,8 +20711,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="486"/>
-      <c r="X21" s="486"/>
+      <c r="W21" s="502"/>
+      <c r="X21" s="502"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20752,8 +20813,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="487"/>
-      <c r="X23" s="487"/>
+      <c r="W23" s="503"/>
+      <c r="X23" s="503"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20804,8 +20865,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="487"/>
-      <c r="X24" s="487"/>
+      <c r="W24" s="503"/>
+      <c r="X24" s="503"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20851,8 +20912,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="488"/>
-      <c r="X25" s="488"/>
+      <c r="W25" s="504"/>
+      <c r="X25" s="504"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20900,8 +20961,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="488"/>
-      <c r="X26" s="488"/>
+      <c r="W26" s="504"/>
+      <c r="X26" s="504"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20961,9 +21022,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="481"/>
-      <c r="X27" s="482"/>
-      <c r="Y27" s="483"/>
+      <c r="W27" s="497"/>
+      <c r="X27" s="498"/>
+      <c r="Y27" s="499"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21017,9 +21078,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="482"/>
-      <c r="X28" s="482"/>
-      <c r="Y28" s="483"/>
+      <c r="W28" s="498"/>
+      <c r="X28" s="498"/>
+      <c r="Y28" s="499"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21335,11 +21396,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="499">
+      <c r="M36" s="488">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="501">
+      <c r="N36" s="490">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -21347,7 +21408,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="503">
+      <c r="Q36" s="492">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -21366,13 +21427,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="500"/>
-      <c r="N37" s="502"/>
+      <c r="M37" s="489"/>
+      <c r="N37" s="491"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="504"/>
+      <c r="Q37" s="493"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21646,26 +21707,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="454" t="s">
+      <c r="H52" s="465" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="455"/>
+      <c r="I52" s="466"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="456">
+      <c r="K52" s="467">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="489"/>
+      <c r="L52" s="494"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="460" t="s">
+      <c r="D53" s="471" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="460"/>
+      <c r="E53" s="471"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -21674,29 +21735,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="490" t="s">
+      <c r="D54" s="495" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="490"/>
+      <c r="E54" s="495"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="461" t="s">
+      <c r="I54" s="472" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="462"/>
-      <c r="K54" s="463">
+      <c r="J54" s="473"/>
+      <c r="K54" s="474">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="463"/>
-      <c r="M54" s="491" t="s">
+      <c r="L54" s="474"/>
+      <c r="M54" s="480" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="492"/>
-      <c r="O54" s="492"/>
-      <c r="P54" s="492"/>
-      <c r="Q54" s="493"/>
+      <c r="N54" s="481"/>
+      <c r="O54" s="481"/>
+      <c r="P54" s="481"/>
+      <c r="Q54" s="482"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21710,11 +21771,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="494"/>
-      <c r="N55" s="495"/>
-      <c r="O55" s="495"/>
-      <c r="P55" s="495"/>
-      <c r="Q55" s="496"/>
+      <c r="M55" s="483"/>
+      <c r="N55" s="484"/>
+      <c r="O55" s="484"/>
+      <c r="P55" s="484"/>
+      <c r="Q55" s="485"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21732,11 +21793,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="465">
+      <c r="K56" s="476">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="466"/>
+      <c r="L56" s="477"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21753,22 +21814,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="443" t="s">
+      <c r="D58" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="444"/>
+      <c r="E58" s="455"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="445" t="s">
+      <c r="I58" s="456" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="446"/>
-      <c r="K58" s="447">
+      <c r="J58" s="457"/>
+      <c r="K58" s="458">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="447"/>
+      <c r="L58" s="458"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21912,13 +21973,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -21928,20 +21996,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24636,7 +24697,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="467"/>
+      <c r="B1" s="443"/>
       <c r="C1" s="509" t="s">
         <v>323</v>
       </c>
@@ -24652,7 +24713,7 @@
       <c r="M1" s="510"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="468"/>
+      <c r="B2" s="444"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24662,21 +24723,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="471" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="472"/>
+      <c r="B3" s="447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="448"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="473" t="s">
+      <c r="H3" s="449" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="473"/>
+      <c r="I3" s="449"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="486" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="507" t="s">
@@ -24694,14 +24755,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="451"/>
+      <c r="H4" s="452" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="453"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24711,15 +24772,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="487"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="508"/>
-      <c r="W4" s="480" t="s">
+      <c r="W4" s="496" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="480"/>
+      <c r="X4" s="496"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24770,8 +24831,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="480"/>
-      <c r="X5" s="480"/>
+      <c r="W5" s="496"/>
+      <c r="X5" s="496"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25535,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="484">
+      <c r="W19" s="500">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25588,7 +25649,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="485"/>
+      <c r="W20" s="501"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25637,8 +25698,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="486"/>
-      <c r="X21" s="486"/>
+      <c r="W21" s="502"/>
+      <c r="X21" s="502"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25738,8 +25799,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="487"/>
-      <c r="X23" s="487"/>
+      <c r="W23" s="503"/>
+      <c r="X23" s="503"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25794,8 +25855,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="487"/>
-      <c r="X24" s="487"/>
+      <c r="W24" s="503"/>
+      <c r="X24" s="503"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25840,8 +25901,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="488"/>
-      <c r="X25" s="488"/>
+      <c r="W25" s="504"/>
+      <c r="X25" s="504"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25889,8 +25950,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="488"/>
-      <c r="X26" s="488"/>
+      <c r="W26" s="504"/>
+      <c r="X26" s="504"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25944,9 +26005,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="481"/>
-      <c r="X27" s="482"/>
-      <c r="Y27" s="483"/>
+      <c r="W27" s="497"/>
+      <c r="X27" s="498"/>
+      <c r="Y27" s="499"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26000,9 +26061,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="482"/>
-      <c r="X28" s="482"/>
-      <c r="Y28" s="483"/>
+      <c r="W28" s="498"/>
+      <c r="X28" s="498"/>
+      <c r="Y28" s="499"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26307,11 +26368,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="499">
+      <c r="M36" s="488">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="501">
+      <c r="N36" s="490">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -26319,7 +26380,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="503">
+      <c r="Q36" s="492">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -26344,13 +26405,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="500"/>
-      <c r="N37" s="502"/>
+      <c r="M37" s="489"/>
+      <c r="N37" s="491"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="504"/>
+      <c r="Q37" s="493"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -26637,26 +26698,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="454" t="s">
+      <c r="H52" s="465" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="455"/>
+      <c r="I52" s="466"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="456">
+      <c r="K52" s="467">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="489"/>
+      <c r="L52" s="494"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="460" t="s">
+      <c r="D53" s="471" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="460"/>
+      <c r="E53" s="471"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -26665,22 +26726,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="490" t="s">
+      <c r="D54" s="495" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="490"/>
+      <c r="E54" s="495"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="461" t="s">
+      <c r="I54" s="472" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="462"/>
-      <c r="K54" s="463">
+      <c r="J54" s="473"/>
+      <c r="K54" s="474">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="463"/>
+      <c r="L54" s="474"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -26721,11 +26782,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="465">
+      <c r="K56" s="476">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="466"/>
+      <c r="L56" s="477"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26742,22 +26803,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="443" t="s">
+      <c r="D58" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="444"/>
+      <c r="E58" s="455"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="445" t="s">
+      <c r="I58" s="456" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="446"/>
-      <c r="K58" s="447">
+      <c r="J58" s="457"/>
+      <c r="K58" s="458">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="447"/>
+      <c r="L58" s="458"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -26901,6 +26962,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26916,20 +26991,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29684,8 +29745,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29714,7 +29775,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="467"/>
+      <c r="B1" s="443"/>
       <c r="C1" s="509" t="s">
         <v>323</v>
       </c>
@@ -29730,7 +29791,7 @@
       <c r="M1" s="510"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="468"/>
+      <c r="B2" s="444"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29740,21 +29801,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="471" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="472"/>
+      <c r="B3" s="447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="448"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="473" t="s">
+      <c r="H3" s="449" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="473"/>
+      <c r="I3" s="449"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="486" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="507" t="s">
@@ -29772,14 +29833,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="451"/>
+      <c r="H4" s="452" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="453"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29789,15 +29850,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="487"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="508"/>
-      <c r="W4" s="480" t="s">
+      <c r="W4" s="496" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="480"/>
+      <c r="X4" s="496"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29848,8 +29909,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="480"/>
-      <c r="X5" s="480"/>
+      <c r="W5" s="496"/>
+      <c r="X5" s="496"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30610,7 +30671,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="484">
+      <c r="W19" s="500">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30654,7 +30715,7 @@
         <f t="shared" si="0"/>
         <v>72030</v>
       </c>
-      <c r="Q20" s="318">
+      <c r="Q20" s="326">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -30662,7 +30723,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="485"/>
+      <c r="W20" s="501"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30711,8 +30772,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="486"/>
-      <c r="X21" s="486"/>
+      <c r="W21" s="502"/>
+      <c r="X21" s="502"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30753,7 +30814,7 @@
         <f t="shared" si="0"/>
         <v>78137</v>
       </c>
-      <c r="Q22" s="318">
+      <c r="Q22" s="326">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -30803,7 +30864,7 @@
         <f t="shared" si="0"/>
         <v>103716</v>
       </c>
-      <c r="Q23" s="318">
+      <c r="Q23" s="326">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -30811,8 +30872,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="487"/>
-      <c r="X23" s="487"/>
+      <c r="W23" s="503"/>
+      <c r="X23" s="503"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30859,7 +30920,7 @@
         <f>N24+M24+L24+I24+C24</f>
         <v>167635</v>
       </c>
-      <c r="Q24" s="318">
+      <c r="Q24" s="326">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -30867,8 +30928,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="487"/>
-      <c r="X24" s="487"/>
+      <c r="W24" s="503"/>
+      <c r="X24" s="503"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30909,15 +30970,15 @@
         <f t="shared" si="0"/>
         <v>78995.5</v>
       </c>
-      <c r="Q25" s="318">
+      <c r="Q25" s="326">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="488"/>
-      <c r="X25" s="488"/>
+      <c r="W25" s="504"/>
+      <c r="X25" s="504"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30958,15 +31019,15 @@
         <f t="shared" si="0"/>
         <v>97381</v>
       </c>
-      <c r="Q26" s="318">
+      <c r="Q26" s="326">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="488"/>
-      <c r="X26" s="488"/>
+      <c r="W26" s="504"/>
+      <c r="X26" s="504"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31007,16 +31068,16 @@
         <f t="shared" si="0"/>
         <v>55967.4</v>
       </c>
-      <c r="Q27" s="318">
+      <c r="Q27" s="326">
         <f t="shared" si="1"/>
         <v>0.40000000000145519</v>
       </c>
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="481"/>
-      <c r="X27" s="482"/>
-      <c r="Y27" s="483"/>
+      <c r="W27" s="497"/>
+      <c r="X27" s="498"/>
+      <c r="Y27" s="499"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31057,16 +31118,16 @@
         <f t="shared" si="0"/>
         <v>75249</v>
       </c>
-      <c r="Q28" s="318">
+      <c r="Q28" s="326">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="482"/>
-      <c r="X28" s="482"/>
-      <c r="Y28" s="483"/>
+      <c r="W28" s="498"/>
+      <c r="X28" s="498"/>
+      <c r="Y28" s="499"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31075,41 +31136,51 @@
         <v>44616</v>
       </c>
       <c r="C29" s="25">
-        <v>0</v>
-      </c>
-      <c r="D29" s="58"/>
+        <v>6774</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>452</v>
+      </c>
       <c r="E29" s="27">
         <v>44616</v>
       </c>
       <c r="F29" s="28">
-        <v>0</v>
+        <v>65978</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="36">
         <v>44616</v>
       </c>
       <c r="I29" s="30">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
-        <v>0</v>
-      </c>
-      <c r="N29" s="33">
-        <v>0</v>
+        <f>3507.28+46135</f>
+        <v>49642.28</v>
+      </c>
+      <c r="N29" s="548">
+        <f>7491+411</f>
+        <v>7902</v>
+      </c>
+      <c r="O29" s="551" t="s">
+        <v>455</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65978.28</v>
+      </c>
+      <c r="Q29" s="326">
+        <f t="shared" si="1"/>
+        <v>0.27999999999883585</v>
       </c>
       <c r="R29" s="320">
         <v>0</v>
+      </c>
+      <c r="T29" s="553">
+        <v>7491</v>
       </c>
       <c r="U29" s="337"/>
       <c r="W29" s="128"/>
@@ -31123,40 +31194,50 @@
         <v>44617</v>
       </c>
       <c r="C30" s="25">
-        <v>0</v>
-      </c>
-      <c r="D30" s="58"/>
+        <v>10378</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>454</v>
+      </c>
       <c r="E30" s="27">
         <v>44617</v>
       </c>
       <c r="F30" s="28">
-        <v>0</v>
+        <v>749838</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="36">
         <v>44617</v>
       </c>
       <c r="I30" s="30">
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="J30" s="60"/>
       <c r="K30" s="41"/>
       <c r="L30" s="61"/>
       <c r="M30" s="32">
-        <v>0</v>
-      </c>
-      <c r="N30" s="33">
-        <v>0</v>
+        <f>680259.73+69394+54204.48</f>
+        <v>803858.21</v>
+      </c>
+      <c r="N30" s="548">
+        <v>26626</v>
+      </c>
+      <c r="O30" s="552" t="s">
+        <v>453</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="321"/>
+        <v>842352.21</v>
+      </c>
+      <c r="Q30" s="326">
+        <v>0</v>
+      </c>
+      <c r="R30" s="550">
+        <v>92514</v>
+      </c>
+      <c r="T30" s="553">
+        <v>26626</v>
+      </c>
       <c r="X30" s="225"/>
       <c r="Y30" s="227"/>
     </row>
@@ -31166,40 +31247,58 @@
         <v>44618</v>
       </c>
       <c r="C31" s="25">
-        <v>0</v>
-      </c>
-      <c r="D31" s="65"/>
+        <v>6319</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>456</v>
+      </c>
       <c r="E31" s="27">
         <v>44618</v>
       </c>
       <c r="F31" s="28">
-        <v>0</v>
+        <v>107356</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="36">
         <v>44618</v>
       </c>
       <c r="I31" s="30">
-        <v>0</v>
-      </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="63"/>
+        <v>4829</v>
+      </c>
+      <c r="J31" s="60">
+        <v>44618</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="L31" s="63">
+        <v>16621.14</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
-      </c>
-      <c r="N31" s="33">
-        <v>0</v>
+        <f>998+41741</f>
+        <v>42739</v>
+      </c>
+      <c r="N31" s="548">
+        <f>10137+26711</f>
+        <v>36848</v>
+      </c>
+      <c r="O31" s="551" t="s">
+        <v>455</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="287">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="322"/>
+        <v>107356.14</v>
+      </c>
+      <c r="Q31" s="111">
+        <f t="shared" si="1"/>
+        <v>0.13999999999941792</v>
+      </c>
+      <c r="R31" s="322">
+        <v>0</v>
+      </c>
+      <c r="T31" s="553">
+        <v>10137</v>
+      </c>
     </row>
     <row r="32" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
@@ -31207,44 +31306,50 @@
         <v>44619</v>
       </c>
       <c r="C32" s="25">
-        <v>0</v>
-      </c>
-      <c r="D32" s="64"/>
+        <v>3900</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>459</v>
+      </c>
       <c r="E32" s="27">
         <v>44619</v>
       </c>
       <c r="F32" s="28">
-        <v>0</v>
+        <v>86103</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="36">
         <v>44619</v>
       </c>
       <c r="I32" s="30">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="J32" s="60"/>
       <c r="K32" s="41"/>
       <c r="L32" s="61"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>51650+7128</f>
+        <v>58778</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>22320</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="287">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86107</v>
+      </c>
+      <c r="Q32" s="111">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R32" s="228">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="T32" s="553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -31266,13 +31371,17 @@
       <c r="P33" s="34">
         <v>0</v>
       </c>
-      <c r="Q33" s="287">
+      <c r="Q33" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R33" s="228"/>
-    </row>
-    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T33" s="554">
+        <f>SUM(T29:T32)</f>
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -31294,13 +31403,13 @@
       <c r="P34" s="34">
         <v>0</v>
       </c>
-      <c r="Q34" s="287">
+      <c r="Q34" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R34" s="228"/>
     </row>
-    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -31322,13 +31431,13 @@
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="273">
+      <c r="Q35" s="549">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R35" s="228"/>
     </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -31341,25 +31450,25 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="499">
+      <c r="M36" s="488">
         <f>SUM(M5:M35)</f>
-        <v>1188847</v>
-      </c>
-      <c r="N36" s="501">
+        <v>2143864.4900000002</v>
+      </c>
+      <c r="N36" s="490">
         <f>SUM(N5:N35)</f>
-        <v>697412</v>
+        <v>791108</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="503">
+      <c r="Q36" s="555">
         <f>SUM(Q5:Q35)</f>
-        <v>107.0199999999968</v>
+        <v>111.43999999999505</v>
       </c>
       <c r="R36" s="228"/>
     </row>
-    <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -31378,18 +31487,18 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="500"/>
-      <c r="N37" s="502"/>
+      <c r="M37" s="489"/>
+      <c r="N37" s="491"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="504"/>
+      <c r="Q37" s="556"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -31415,7 +31524,7 @@
       </c>
       <c r="Q38" s="274"/>
     </row>
-    <row r="39" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="69"/>
@@ -31434,15 +31543,18 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="278"/>
-      <c r="N39" s="278"/>
+      <c r="M39" s="557">
+        <f>M36+N36</f>
+        <v>2934972.49</v>
+      </c>
+      <c r="N39" s="558"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>2348286.02</v>
+        <v>3450079.65</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
-    <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="69"/>
@@ -31452,15 +31564,21 @@
       <c r="G40" s="2"/>
       <c r="H40" s="36"/>
       <c r="I40" s="71"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="61"/>
+      <c r="J40" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="L40" s="61">
+        <v>13372.77</v>
+      </c>
       <c r="M40" s="278"/>
       <c r="N40" s="278"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="72"/>
@@ -31478,7 +31596,7 @@
       <c r="P41" s="34"/>
       <c r="Q41" s="13"/>
     </row>
-    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="72"/>
@@ -31496,7 +31614,7 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="72"/>
@@ -31514,7 +31632,7 @@
       <c r="P43" s="34"/>
       <c r="Q43" s="13"/>
     </row>
-    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="72"/>
@@ -31532,7 +31650,7 @@
       <c r="P44" s="34"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="72"/>
@@ -31550,7 +31668,7 @@
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="72"/>
@@ -31568,7 +31686,7 @@
       <c r="P46" s="34"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="72"/>
@@ -31586,7 +31704,7 @@
       <c r="P47" s="34"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="72"/>
@@ -31629,7 +31747,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>370034.9</v>
+        <v>397405.9</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -31637,7 +31755,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>2285541</v>
+        <v>3294816</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -31645,7 +31763,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>56595</v>
+        <v>65683</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -31653,7 +31771,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>84515.709999999992</v>
+        <v>114509.62</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -31671,50 +31789,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="454" t="s">
+      <c r="H52" s="465" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="455"/>
+      <c r="I52" s="466"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="456">
+      <c r="K52" s="467">
         <f>I50+L50</f>
-        <v>141110.71</v>
-      </c>
-      <c r="L52" s="489"/>
+        <v>180192.62</v>
+      </c>
+      <c r="L52" s="494"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="460" t="s">
+      <c r="D53" s="471" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="460"/>
+      <c r="E53" s="471"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1774395.3900000001</v>
+        <v>2717217.48</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="490" t="s">
+      <c r="D54" s="495" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="490"/>
+      <c r="E54" s="495"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="461" t="s">
+      <c r="I54" s="472" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="462"/>
-      <c r="K54" s="463">
+      <c r="J54" s="473"/>
+      <c r="K54" s="474">
         <f>F56+F57+F58</f>
-        <v>1774395.3900000001</v>
-      </c>
-      <c r="L54" s="463"/>
+        <v>3983785.9299999997</v>
+      </c>
+      <c r="L54" s="474"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31748,18 +31866,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1774395.3900000001</v>
+        <v>2717217.48</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="465">
+      <c r="K56" s="476">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="466"/>
+      <c r="L56" s="477"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31773,23 +31891,25 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="112"/>
-      <c r="D58" s="443" t="s">
+      <c r="C58" s="112">
+        <v>44619</v>
+      </c>
+      <c r="D58" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="444"/>
+      <c r="E58" s="455"/>
       <c r="F58" s="113">
-        <v>0</v>
-      </c>
-      <c r="I58" s="445" t="s">
+        <v>1266568.45</v>
+      </c>
+      <c r="I58" s="456" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="446"/>
-      <c r="K58" s="447">
+      <c r="J58" s="457"/>
+      <c r="K58" s="458">
         <f>K54+K56</f>
-        <v>624654.98000000021</v>
-      </c>
-      <c r="L58" s="447"/>
+        <v>2834045.5199999996</v>
+      </c>
+      <c r="L58" s="458"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -31932,21 +32052,7 @@
       <c r="F80" s="129"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
+  <mergeCells count="30">
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -31962,6 +32068,21 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -4520,321 +4520,6 @@
     </xf>
     <xf numFmtId="44" fontId="47" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="19" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="19" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="7" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="17" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4844,6 +4529,255 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="55" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4854,6 +4788,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="19" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="19" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7399,8 +7399,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7425,23 +7425,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="443"/>
-      <c r="C1" s="445" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="446"/>
-      <c r="E1" s="446"/>
-      <c r="F1" s="446"/>
-      <c r="G1" s="446"/>
-      <c r="H1" s="446"/>
-      <c r="I1" s="446"/>
-      <c r="J1" s="446"/>
-      <c r="K1" s="446"/>
-      <c r="L1" s="446"/>
-      <c r="M1" s="446"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="444"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7451,17 +7451,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="447" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="448"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="449" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="449"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7475,14 +7475,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="450" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="451"/>
-      <c r="H4" s="452" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="453"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -7492,10 +7492,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="459" t="s">
+      <c r="P4" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="460"/>
+      <c r="Q4" s="456"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8936,11 +8936,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="461">
+      <c r="M39" s="457">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="463">
+      <c r="N39" s="459">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8966,8 +8966,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="462"/>
-      <c r="N40" s="464"/>
+      <c r="M40" s="458"/>
+      <c r="N40" s="460"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9182,29 +9182,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="465" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="466"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="467">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="468"/>
-      <c r="M52" s="469">
+      <c r="L52" s="464"/>
+      <c r="M52" s="465">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="470"/>
+      <c r="N52" s="466"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="471" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="471"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9215,22 +9215,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="471" t="s">
+      <c r="D54" s="467" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="471"/>
+      <c r="E54" s="467"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="472" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="473"/>
-      <c r="K54" s="474">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="475"/>
+      <c r="L54" s="471"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9263,11 +9263,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="476">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="477"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9284,22 +9284,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="454" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="455"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="456" t="s">
+      <c r="I58" s="452" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="457"/>
-      <c r="K58" s="458">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="458"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -9443,6 +9443,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -9457,12 +9463,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11123,7 +11123,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="505" t="s">
+      <c r="F80" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -11136,7 +11136,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="506"/>
+      <c r="F81" s="513"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -11446,11 +11446,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="532" t="s">
+      <c r="C1" s="543" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="532"/>
-      <c r="E1" s="533"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="544"/>
       <c r="F1" s="387"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -11468,12 +11468,12 @@
       <c r="F3" s="394"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="534" t="s">
+      <c r="B4" s="545" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="535"/>
-      <c r="D4" s="535"/>
-      <c r="E4" s="535"/>
+      <c r="C4" s="546"/>
+      <c r="D4" s="546"/>
+      <c r="E4" s="546"/>
       <c r="F4" s="395">
         <v>499853.16</v>
       </c>
@@ -11488,12 +11488,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="536" t="s">
+      <c r="B6" s="547" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="537"/>
-      <c r="D6" s="537"/>
-      <c r="E6" s="537"/>
+      <c r="C6" s="548"/>
+      <c r="D6" s="548"/>
+      <c r="E6" s="548"/>
       <c r="F6" s="395">
         <v>781251.72</v>
       </c>
@@ -11511,10 +11511,10 @@
       <c r="B8" s="388"/>
       <c r="C8" s="381"/>
       <c r="D8" s="382"/>
-      <c r="E8" s="538" t="s">
+      <c r="E8" s="549" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="540">
+      <c r="F8" s="551">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -11523,8 +11523,8 @@
       <c r="B9" s="388"/>
       <c r="C9" s="381"/>
       <c r="D9" s="382"/>
-      <c r="E9" s="539"/>
-      <c r="F9" s="541"/>
+      <c r="E9" s="550"/>
+      <c r="F9" s="552"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="388"/>
@@ -11548,12 +11548,12 @@
       <c r="F12" s="394"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="542" t="s">
+      <c r="B13" s="553" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="543"/>
-      <c r="D13" s="543"/>
-      <c r="E13" s="543"/>
+      <c r="C13" s="554"/>
+      <c r="D13" s="554"/>
+      <c r="E13" s="554"/>
       <c r="F13" s="395">
         <v>255460.4</v>
       </c>
@@ -11568,12 +11568,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="553" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="543"/>
-      <c r="D15" s="543"/>
-      <c r="E15" s="543"/>
+      <c r="C15" s="554"/>
+      <c r="D15" s="554"/>
+      <c r="E15" s="554"/>
       <c r="F15" s="395">
         <v>6037.34</v>
       </c>
@@ -11591,10 +11591,10 @@
       <c r="B17" s="388"/>
       <c r="C17" s="381"/>
       <c r="D17" s="382"/>
-      <c r="E17" s="544" t="s">
+      <c r="E17" s="555" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="546">
+      <c r="F17" s="557">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -11603,8 +11603,8 @@
       <c r="B18" s="388"/>
       <c r="C18" s="381"/>
       <c r="D18" s="382"/>
-      <c r="E18" s="545"/>
-      <c r="F18" s="547"/>
+      <c r="E18" s="556"/>
+      <c r="F18" s="558"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="388"/>
@@ -11628,22 +11628,22 @@
       <c r="F21" s="394"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="537" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="527"/>
-      <c r="D22" s="527"/>
-      <c r="E22" s="527"/>
-      <c r="F22" s="530">
+      <c r="C22" s="538"/>
+      <c r="D22" s="538"/>
+      <c r="E22" s="538"/>
+      <c r="F22" s="541">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="528"/>
-      <c r="C23" s="529"/>
-      <c r="D23" s="529"/>
-      <c r="E23" s="529"/>
-      <c r="F23" s="531"/>
+      <c r="B23" s="539"/>
+      <c r="C23" s="540"/>
+      <c r="D23" s="540"/>
+      <c r="E23" s="540"/>
+      <c r="F23" s="542"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="355"/>
@@ -13003,7 +13003,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="478" t="s">
+      <c r="B41" s="485" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -13035,7 +13035,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="479"/>
+      <c r="B42" s="486"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -14602,7 +14602,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -14631,23 +14631,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="443"/>
-      <c r="C1" s="445" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="446"/>
-      <c r="E1" s="446"/>
-      <c r="F1" s="446"/>
-      <c r="G1" s="446"/>
-      <c r="H1" s="446"/>
-      <c r="I1" s="446"/>
-      <c r="J1" s="446"/>
-      <c r="K1" s="446"/>
-      <c r="L1" s="446"/>
-      <c r="M1" s="446"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="444"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14657,21 +14657,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="447" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="448"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="449" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="449"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="486" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14686,14 +14686,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="450" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="451"/>
-      <c r="H4" s="452" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="453"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14703,14 +14703,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="487"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="496" t="s">
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="496"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14761,8 +14761,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="496"/>
-      <c r="X5" s="496"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15533,7 +15533,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="500">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="501"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15634,8 +15634,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="502"/>
-      <c r="X21" s="502"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15736,8 +15736,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="503"/>
-      <c r="X23" s="503"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15791,8 +15791,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="503"/>
-      <c r="X24" s="503"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15838,8 +15838,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="504"/>
-      <c r="X25" s="504"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15890,8 +15890,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="504"/>
-      <c r="X26" s="504"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15939,9 +15939,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="497"/>
-      <c r="X27" s="498"/>
-      <c r="Y27" s="499"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15991,9 +15991,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="498"/>
-      <c r="X28" s="498"/>
-      <c r="Y28" s="499"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16328,11 +16328,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="488">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="490">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -16340,7 +16340,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="492">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -16375,13 +16375,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="489"/>
-      <c r="N37" s="491"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="493"/>
+      <c r="Q37" s="511"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -16671,26 +16671,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="465" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="466"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="467">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="494"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="471" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="471"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -16699,29 +16699,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="495" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="495"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="472" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="473"/>
-      <c r="K54" s="474">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="474"/>
-      <c r="M54" s="480" t="s">
+      <c r="L54" s="470"/>
+      <c r="M54" s="498" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="481"/>
-      <c r="O54" s="481"/>
-      <c r="P54" s="481"/>
-      <c r="Q54" s="482"/>
+      <c r="N54" s="499"/>
+      <c r="O54" s="499"/>
+      <c r="P54" s="499"/>
+      <c r="Q54" s="500"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -16735,11 +16735,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="483"/>
-      <c r="N55" s="484"/>
-      <c r="O55" s="484"/>
-      <c r="P55" s="484"/>
-      <c r="Q55" s="485"/>
+      <c r="M55" s="501"/>
+      <c r="N55" s="502"/>
+      <c r="O55" s="502"/>
+      <c r="P55" s="502"/>
+      <c r="Q55" s="503"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -16757,11 +16757,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="476">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="477"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16778,22 +16778,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="454" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="455"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="456" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="457"/>
-      <c r="K58" s="458">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="458"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16937,14 +16937,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16955,17 +16958,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19383,7 +19383,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="505" t="s">
+      <c r="F87" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -19396,7 +19396,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="506"/>
+      <c r="F88" s="513"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -19678,8 +19678,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19708,23 +19708,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="443"/>
-      <c r="C1" s="445" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="446"/>
-      <c r="E1" s="446"/>
-      <c r="F1" s="446"/>
-      <c r="G1" s="446"/>
-      <c r="H1" s="446"/>
-      <c r="I1" s="446"/>
-      <c r="J1" s="446"/>
-      <c r="K1" s="446"/>
-      <c r="L1" s="446"/>
-      <c r="M1" s="446"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="444"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19734,24 +19734,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="447" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="448"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="449" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="449"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="486" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="507" t="s">
+      <c r="R3" s="514" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19766,14 +19766,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="450" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="451"/>
-      <c r="H4" s="452" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="453"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19783,15 +19783,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="487"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="508"/>
-      <c r="W4" s="496" t="s">
+      <c r="R4" s="515"/>
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="496"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19852,8 +19852,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="496"/>
-      <c r="X5" s="496"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20610,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="500">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="501"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20711,8 +20711,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="502"/>
-      <c r="X21" s="502"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20813,8 +20813,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="503"/>
-      <c r="X23" s="503"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20865,8 +20865,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="503"/>
-      <c r="X24" s="503"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20912,8 +20912,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="504"/>
-      <c r="X25" s="504"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20961,8 +20961,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="504"/>
-      <c r="X26" s="504"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21022,9 +21022,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="497"/>
-      <c r="X27" s="498"/>
-      <c r="Y27" s="499"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21078,9 +21078,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="498"/>
-      <c r="X28" s="498"/>
-      <c r="Y28" s="499"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21396,11 +21396,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="488">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="490">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -21408,7 +21408,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="492">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -21427,13 +21427,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="489"/>
-      <c r="N37" s="491"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="493"/>
+      <c r="Q37" s="511"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21707,26 +21707,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="465" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="466"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="467">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="494"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="471" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="471"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -21735,29 +21735,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="495" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="495"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="472" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="473"/>
-      <c r="K54" s="474">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="474"/>
-      <c r="M54" s="480" t="s">
+      <c r="L54" s="470"/>
+      <c r="M54" s="498" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="481"/>
-      <c r="O54" s="481"/>
-      <c r="P54" s="481"/>
-      <c r="Q54" s="482"/>
+      <c r="N54" s="499"/>
+      <c r="O54" s="499"/>
+      <c r="P54" s="499"/>
+      <c r="Q54" s="500"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21771,11 +21771,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="483"/>
-      <c r="N55" s="484"/>
-      <c r="O55" s="484"/>
-      <c r="P55" s="484"/>
-      <c r="Q55" s="485"/>
+      <c r="M55" s="501"/>
+      <c r="N55" s="502"/>
+      <c r="O55" s="502"/>
+      <c r="P55" s="502"/>
+      <c r="Q55" s="503"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21793,11 +21793,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="476">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="477"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21814,22 +21814,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="454" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="455"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="456" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="457"/>
-      <c r="K58" s="458">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="458"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21973,20 +21973,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -21996,13 +21989,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24392,7 +24392,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="505" t="s">
+      <c r="F75" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -24405,7 +24405,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="506"/>
+      <c r="F76" s="513"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -24667,7 +24667,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -24697,23 +24697,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="443"/>
-      <c r="C1" s="509" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="516" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="510"/>
-      <c r="E1" s="510"/>
-      <c r="F1" s="510"/>
-      <c r="G1" s="510"/>
-      <c r="H1" s="510"/>
-      <c r="I1" s="510"/>
-      <c r="J1" s="510"/>
-      <c r="K1" s="510"/>
-      <c r="L1" s="510"/>
-      <c r="M1" s="510"/>
+      <c r="D1" s="517"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
+      <c r="L1" s="517"/>
+      <c r="M1" s="517"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="444"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24723,24 +24723,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="447" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="448"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="449" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="449"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="486" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="507" t="s">
+      <c r="R3" s="514" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24755,14 +24755,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="450" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="451"/>
-      <c r="H4" s="452" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="453"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24772,15 +24772,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="487"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="508"/>
-      <c r="W4" s="496" t="s">
+      <c r="R4" s="515"/>
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="496"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24831,8 +24831,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="496"/>
-      <c r="X5" s="496"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="500">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="501"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25698,8 +25698,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="502"/>
-      <c r="X21" s="502"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25799,8 +25799,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="503"/>
-      <c r="X23" s="503"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25855,8 +25855,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="503"/>
-      <c r="X24" s="503"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25901,8 +25901,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="504"/>
-      <c r="X25" s="504"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25950,8 +25950,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="504"/>
-      <c r="X26" s="504"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26005,9 +26005,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="497"/>
-      <c r="X27" s="498"/>
-      <c r="Y27" s="499"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26061,9 +26061,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="498"/>
-      <c r="X28" s="498"/>
-      <c r="Y28" s="499"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26368,11 +26368,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="488">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="490">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -26380,7 +26380,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="492">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -26405,13 +26405,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="489"/>
-      <c r="N37" s="491"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="493"/>
+      <c r="Q37" s="511"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -26698,26 +26698,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="465" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="466"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="467">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="494"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="471" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="471"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -26726,22 +26726,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="495" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="495"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="472" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="473"/>
-      <c r="K54" s="474">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="474"/>
+      <c r="L54" s="470"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -26782,11 +26782,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="476">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="477"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26803,22 +26803,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="454" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="455"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="456" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="457"/>
-      <c r="K58" s="458">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="458"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -26962,20 +26962,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26991,6 +26977,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28651,12 +28651,12 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="511" t="s">
+      <c r="B43" s="518" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="512"/>
-      <c r="D43" s="512"/>
-      <c r="E43" s="513"/>
+      <c r="C43" s="519"/>
+      <c r="D43" s="519"/>
+      <c r="E43" s="520"/>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28681,10 +28681,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="514"/>
-      <c r="C44" s="515"/>
-      <c r="D44" s="515"/>
-      <c r="E44" s="516"/>
+      <c r="B44" s="521"/>
+      <c r="C44" s="522"/>
+      <c r="D44" s="522"/>
+      <c r="E44" s="523"/>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28709,10 +28709,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="517"/>
-      <c r="C45" s="518"/>
-      <c r="D45" s="518"/>
-      <c r="E45" s="519"/>
+      <c r="B45" s="524"/>
+      <c r="C45" s="525"/>
+      <c r="D45" s="525"/>
+      <c r="E45" s="526"/>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28796,11 +28796,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="520" t="s">
+      <c r="J48" s="527" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="521"/>
-      <c r="L48" s="522"/>
+      <c r="K48" s="528"/>
+      <c r="L48" s="529"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -28818,9 +28818,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="523"/>
-      <c r="K49" s="524"/>
-      <c r="L49" s="525"/>
+      <c r="J49" s="530"/>
+      <c r="K49" s="531"/>
+      <c r="L49" s="532"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -29447,7 +29447,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="505" t="s">
+      <c r="F80" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -29460,7 +29460,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="506"/>
+      <c r="F81" s="513"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -29745,8 +29745,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29775,23 +29775,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="443"/>
-      <c r="C1" s="509" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="516" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="510"/>
-      <c r="E1" s="510"/>
-      <c r="F1" s="510"/>
-      <c r="G1" s="510"/>
-      <c r="H1" s="510"/>
-      <c r="I1" s="510"/>
-      <c r="J1" s="510"/>
-      <c r="K1" s="510"/>
-      <c r="L1" s="510"/>
-      <c r="M1" s="510"/>
+      <c r="D1" s="517"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
+      <c r="L1" s="517"/>
+      <c r="M1" s="517"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="444"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29801,24 +29801,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="447" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="448"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="449" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="449"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="486" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="507" t="s">
+      <c r="R3" s="514" t="s">
         <v>216</v>
       </c>
     </row>
@@ -29833,14 +29833,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="450" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="451"/>
-      <c r="H4" s="452" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="453"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29850,15 +29850,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="487"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="508"/>
-      <c r="W4" s="496" t="s">
+      <c r="R4" s="515"/>
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="496"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29909,8 +29909,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="496"/>
-      <c r="X5" s="496"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30671,7 +30671,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="500">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30723,7 +30723,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="501"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30772,8 +30772,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="502"/>
-      <c r="X21" s="502"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30872,8 +30872,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="503"/>
-      <c r="X23" s="503"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30928,8 +30928,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="503"/>
-      <c r="X24" s="503"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30977,8 +30977,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="504"/>
-      <c r="X25" s="504"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31026,8 +31026,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="504"/>
-      <c r="X26" s="504"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31075,9 +31075,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="497"/>
-      <c r="X27" s="498"/>
-      <c r="Y27" s="499"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31125,9 +31125,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="498"/>
-      <c r="X28" s="498"/>
-      <c r="Y28" s="499"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31161,11 +31161,11 @@
         <f>3507.28+46135</f>
         <v>49642.28</v>
       </c>
-      <c r="N29" s="548">
+      <c r="N29" s="443">
         <f>7491+411</f>
         <v>7902</v>
       </c>
-      <c r="O29" s="551" t="s">
+      <c r="O29" s="446" t="s">
         <v>455</v>
       </c>
       <c r="P29" s="34">
@@ -31179,7 +31179,7 @@
       <c r="R29" s="320">
         <v>0</v>
       </c>
-      <c r="T29" s="553">
+      <c r="T29" s="448">
         <v>7491</v>
       </c>
       <c r="U29" s="337"/>
@@ -31219,10 +31219,10 @@
         <f>680259.73+69394+54204.48</f>
         <v>803858.21</v>
       </c>
-      <c r="N30" s="548">
+      <c r="N30" s="443">
         <v>26626</v>
       </c>
-      <c r="O30" s="552" t="s">
+      <c r="O30" s="447" t="s">
         <v>453</v>
       </c>
       <c r="P30" s="34">
@@ -31232,10 +31232,10 @@
       <c r="Q30" s="326">
         <v>0</v>
       </c>
-      <c r="R30" s="550">
+      <c r="R30" s="445">
         <v>92514</v>
       </c>
-      <c r="T30" s="553">
+      <c r="T30" s="448">
         <v>26626</v>
       </c>
       <c r="X30" s="225"/>
@@ -31278,11 +31278,11 @@
         <f>998+41741</f>
         <v>42739</v>
       </c>
-      <c r="N31" s="548">
+      <c r="N31" s="443">
         <f>10137+26711</f>
         <v>36848</v>
       </c>
-      <c r="O31" s="551" t="s">
+      <c r="O31" s="446" t="s">
         <v>455</v>
       </c>
       <c r="P31" s="34">
@@ -31296,7 +31296,7 @@
       <c r="R31" s="322">
         <v>0</v>
       </c>
-      <c r="T31" s="553">
+      <c r="T31" s="448">
         <v>10137</v>
       </c>
     </row>
@@ -31345,7 +31345,7 @@
       <c r="R32" s="228">
         <v>0</v>
       </c>
-      <c r="T32" s="553">
+      <c r="T32" s="448">
         <v>0</v>
       </c>
     </row>
@@ -31376,7 +31376,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="228"/>
-      <c r="T33" s="554">
+      <c r="T33" s="449">
         <f>SUM(T29:T32)</f>
         <v>44254</v>
       </c>
@@ -31431,7 +31431,7 @@
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="549">
+      <c r="Q35" s="444">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -31450,11 +31450,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="488">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="490">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -31462,7 +31462,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="555">
+      <c r="Q36" s="533">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -31487,13 +31487,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="489"/>
-      <c r="N37" s="491"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="556"/>
+      <c r="Q37" s="534"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -31543,11 +31543,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="557">
+      <c r="M39" s="535">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="558"/>
+      <c r="N39" s="536"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -31789,26 +31789,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="465" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="466"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="467">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>180192.62</v>
       </c>
-      <c r="L52" s="494"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="471" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="471"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2717217.48</v>
@@ -31817,22 +31817,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="495" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="495"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="472" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="473"/>
-      <c r="K54" s="474">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>3983785.9299999997</v>
       </c>
-      <c r="L54" s="474"/>
+      <c r="L54" s="470"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31873,11 +31873,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="476">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="477"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31894,22 +31894,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="454" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="455"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="456" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="457"/>
-      <c r="K58" s="458">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>2834045.5199999996</v>
       </c>
-      <c r="L58" s="458"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -32053,6 +32053,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -32069,20 +32083,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/BALANCE    ZAVALETA   FEBRERO     2022 VALIDA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="532">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1753,6 +1753,222 @@
   </si>
   <si>
     <t>ENCHILADA</t>
+  </si>
+  <si>
+    <t>10535 C</t>
+  </si>
+  <si>
+    <t>10643 C</t>
+  </si>
+  <si>
+    <t>10669 C</t>
+  </si>
+  <si>
+    <t>10688 C</t>
+  </si>
+  <si>
+    <t>10695 C</t>
+  </si>
+  <si>
+    <t>10808 C</t>
+  </si>
+  <si>
+    <t>10823 C</t>
+  </si>
+  <si>
+    <t>10911 C</t>
+  </si>
+  <si>
+    <t>10927 C</t>
+  </si>
+  <si>
+    <t>10932 C</t>
+  </si>
+  <si>
+    <t>10949 C</t>
+  </si>
+  <si>
+    <t>11037 C</t>
+  </si>
+  <si>
+    <t>11063 C</t>
+  </si>
+  <si>
+    <t>11091 C</t>
+  </si>
+  <si>
+    <t>11174 C</t>
+  </si>
+  <si>
+    <t>11222 C</t>
+  </si>
+  <si>
+    <t>11339 C</t>
+  </si>
+  <si>
+    <t>11478 C</t>
+  </si>
+  <si>
+    <t>11512 C</t>
+  </si>
+  <si>
+    <t>11628 C</t>
+  </si>
+  <si>
+    <t>11640 C</t>
+  </si>
+  <si>
+    <t>11657 C</t>
+  </si>
+  <si>
+    <t>11761 C</t>
+  </si>
+  <si>
+    <t>11823 C</t>
+  </si>
+  <si>
+    <t>11878 C</t>
+  </si>
+  <si>
+    <t>11987 C</t>
+  </si>
+  <si>
+    <t>11991 C</t>
+  </si>
+  <si>
+    <t>12004 C</t>
+  </si>
+  <si>
+    <t>12053 C</t>
+  </si>
+  <si>
+    <t>12161 C</t>
+  </si>
+  <si>
+    <t>12256 C</t>
+  </si>
+  <si>
+    <t>12293 C</t>
+  </si>
+  <si>
+    <t>12315 C</t>
+  </si>
+  <si>
+    <t>12389 C</t>
+  </si>
+  <si>
+    <t>12400 C</t>
+  </si>
+  <si>
+    <t>12471 C</t>
+  </si>
+  <si>
+    <t>12588 C</t>
+  </si>
+  <si>
+    <t>12682 C</t>
+  </si>
+  <si>
+    <t>12771 C</t>
+  </si>
+  <si>
+    <t>12795 C</t>
+  </si>
+  <si>
+    <t>12899 C</t>
+  </si>
+  <si>
+    <t>12977 C</t>
+  </si>
+  <si>
+    <t>13030 C</t>
+  </si>
+  <si>
+    <t>13138 C</t>
+  </si>
+  <si>
+    <t>13246 C</t>
+  </si>
+  <si>
+    <t>13425 C</t>
+  </si>
+  <si>
+    <t>13429 C</t>
+  </si>
+  <si>
+    <t>13460 C</t>
+  </si>
+  <si>
+    <t>13541 C</t>
+  </si>
+  <si>
+    <t>02/02/2022</t>
+  </si>
+  <si>
+    <t>03/02/2022</t>
+  </si>
+  <si>
+    <t>04/02/2022</t>
+  </si>
+  <si>
+    <t>05/02/2022</t>
+  </si>
+  <si>
+    <t>07/02/2022</t>
+  </si>
+  <si>
+    <t>08/02/2022</t>
+  </si>
+  <si>
+    <t>09/02/2022</t>
+  </si>
+  <si>
+    <t>10/02/2022</t>
+  </si>
+  <si>
+    <t>11/02/2022</t>
+  </si>
+  <si>
+    <t>12/02/2022</t>
+  </si>
+  <si>
+    <t>13/02/2022</t>
+  </si>
+  <si>
+    <t>14/02/2022</t>
+  </si>
+  <si>
+    <t>15/02/2022</t>
+  </si>
+  <si>
+    <t>16/02/2022</t>
+  </si>
+  <si>
+    <t>17/02/2022</t>
+  </si>
+  <si>
+    <t>18/02/2022</t>
+  </si>
+  <si>
+    <t>19/02/2022</t>
+  </si>
+  <si>
+    <t>21/02/2022</t>
+  </si>
+  <si>
+    <t>23/02/2022</t>
+  </si>
+  <si>
+    <t>24/02/2022</t>
+  </si>
+  <si>
+    <t>25/02/2022</t>
+  </si>
+  <si>
+    <t>26/02/2022</t>
+  </si>
+  <si>
+    <t>28/02/2022</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1984,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2210,6 +2426,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="21">
@@ -3626,7 +3868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="559">
+  <cellXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4497,21 +4739,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4529,6 +4761,39 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="55" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4601,45 +4866,60 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4667,54 +4947,6 @@
     <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4855,6 +5087,36 @@
     </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="57" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="57" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7425,23 +7687,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="444"/>
+      <c r="C1" s="446" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="447"/>
+      <c r="E1" s="447"/>
+      <c r="F1" s="447"/>
+      <c r="G1" s="447"/>
+      <c r="H1" s="447"/>
+      <c r="I1" s="447"/>
+      <c r="J1" s="447"/>
+      <c r="K1" s="447"/>
+      <c r="L1" s="447"/>
+      <c r="M1" s="447"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="445"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7451,17 +7713,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="449"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="450" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="450"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7475,14 +7737,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="452"/>
+      <c r="H4" s="453" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="454"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -7492,10 +7754,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="455" t="s">
+      <c r="P4" s="460" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="456"/>
+      <c r="Q4" s="461"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8936,11 +9198,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="457">
+      <c r="M39" s="462">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="459">
+      <c r="N39" s="464">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8966,8 +9228,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="458"/>
-      <c r="N40" s="460"/>
+      <c r="M40" s="463"/>
+      <c r="N40" s="465"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9182,29 +9444,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="467"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="468">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="464"/>
-      <c r="M52" s="465">
+      <c r="L52" s="469"/>
+      <c r="M52" s="470">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="466"/>
+      <c r="N52" s="471"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="472" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="472"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9215,22 +9477,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="467" t="s">
+      <c r="D54" s="472" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="467"/>
+      <c r="E54" s="472"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="473" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="474"/>
+      <c r="K54" s="475">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="471"/>
+      <c r="L54" s="476"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9263,11 +9525,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="477">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="478"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9284,22 +9546,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="456"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="457" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="458"/>
+      <c r="K58" s="459">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="459"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -9443,12 +9705,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -9463,6 +9719,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9478,8 +9740,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9560,735 +9822,1321 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="412"/>
-      <c r="B3" s="413"/>
-      <c r="C3" s="411"/>
-      <c r="D3" s="424"/>
-      <c r="E3" s="411"/>
+      <c r="A3" s="553">
+        <v>44592</v>
+      </c>
+      <c r="B3" s="554" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="411">
+        <v>2742.6</v>
+      </c>
+      <c r="D3" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E3" s="411">
+        <v>2742.6</v>
+      </c>
       <c r="F3" s="411">
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="437"/>
-      <c r="J3" s="438"/>
-      <c r="K3" s="432"/>
-      <c r="L3" s="437"/>
-      <c r="M3" s="432"/>
+      <c r="I3" s="413" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" s="410">
+        <v>8445</v>
+      </c>
+      <c r="K3" s="411">
+        <v>1315</v>
+      </c>
+      <c r="L3" s="432"/>
+      <c r="M3" s="430"/>
       <c r="N3" s="183">
         <f>K3-M3</f>
-        <v>0</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="412"/>
-      <c r="B4" s="413"/>
-      <c r="C4" s="411"/>
-      <c r="D4" s="424"/>
-      <c r="E4" s="411"/>
+      <c r="A4" s="553">
+        <v>44593</v>
+      </c>
+      <c r="B4" s="554" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="411">
+        <v>139150.76</v>
+      </c>
+      <c r="D4" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E4" s="411">
+        <v>139150.76</v>
+      </c>
       <c r="F4" s="411">
         <f t="shared" ref="F4:F46" si="0">C4-E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="111"/>
+      <c r="I4" s="413" t="s">
+        <v>380</v>
+      </c>
+      <c r="J4" s="410">
+        <v>8449</v>
+      </c>
+      <c r="K4" s="411">
+        <v>272.8</v>
+      </c>
       <c r="L4" s="288"/>
       <c r="M4" s="111"/>
       <c r="N4" s="137">
         <f>N3+K4-M4</f>
-        <v>0</v>
+        <v>1587.8</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="412"/>
-      <c r="B5" s="413"/>
-      <c r="C5" s="411"/>
-      <c r="D5" s="424"/>
-      <c r="E5" s="411"/>
+      <c r="A5" s="553">
+        <v>44593</v>
+      </c>
+      <c r="B5" s="554" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" s="411">
+        <v>4949</v>
+      </c>
+      <c r="D5" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E5" s="411">
+        <v>4949</v>
+      </c>
       <c r="F5" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="288"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="111"/>
+      <c r="I5" s="413" t="s">
+        <v>356</v>
+      </c>
+      <c r="J5" s="410">
+        <v>8457</v>
+      </c>
+      <c r="K5" s="411">
+        <v>84434.880000000005</v>
+      </c>
       <c r="L5" s="288"/>
       <c r="M5" s="111"/>
       <c r="N5" s="137">
         <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
-        <v>0</v>
+        <v>86022.680000000008</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="412"/>
-      <c r="B6" s="413"/>
-      <c r="C6" s="411"/>
-      <c r="D6" s="424"/>
-      <c r="E6" s="411"/>
+      <c r="A6" s="553">
+        <v>44593</v>
+      </c>
+      <c r="B6" s="554" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" s="411">
+        <v>1080</v>
+      </c>
+      <c r="D6" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E6" s="411">
+        <v>1080</v>
+      </c>
       <c r="F6" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="288"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="413" t="s">
+        <v>509</v>
+      </c>
+      <c r="J6" s="410">
+        <v>8461</v>
+      </c>
+      <c r="K6" s="411">
+        <v>10050.200000000001</v>
+      </c>
       <c r="L6" s="288"/>
       <c r="M6" s="111"/>
       <c r="N6" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96072.88</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="412"/>
-      <c r="B7" s="413"/>
-      <c r="C7" s="411"/>
-      <c r="D7" s="424"/>
-      <c r="E7" s="411"/>
+      <c r="A7" s="553">
+        <v>44593</v>
+      </c>
+      <c r="B7" s="554" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="411">
+        <v>29260.799999999999</v>
+      </c>
+      <c r="D7" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E7" s="411">
+        <v>29260.799999999999</v>
+      </c>
       <c r="F7" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="288"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="111"/>
+      <c r="I7" s="413" t="s">
+        <v>510</v>
+      </c>
+      <c r="J7" s="410">
+        <v>8474</v>
+      </c>
+      <c r="K7" s="411">
+        <v>1412.2</v>
+      </c>
       <c r="L7" s="288"/>
       <c r="M7" s="111"/>
       <c r="N7" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>97485.08</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="412"/>
-      <c r="B8" s="413"/>
-      <c r="C8" s="411"/>
-      <c r="D8" s="424"/>
-      <c r="E8" s="411"/>
+      <c r="A8" s="553">
+        <v>44594</v>
+      </c>
+      <c r="B8" s="554" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="411">
+        <v>4790.8</v>
+      </c>
+      <c r="D8" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E8" s="411">
+        <v>4790.8</v>
+      </c>
       <c r="F8" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="288"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="111"/>
+      <c r="I8" s="413" t="s">
+        <v>511</v>
+      </c>
+      <c r="J8" s="410">
+        <v>8485</v>
+      </c>
+      <c r="K8" s="411">
+        <v>12456.4</v>
+      </c>
       <c r="L8" s="288"/>
       <c r="M8" s="111"/>
       <c r="N8" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109941.48</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="412"/>
-      <c r="B9" s="413"/>
-      <c r="C9" s="411"/>
-      <c r="D9" s="424"/>
-      <c r="E9" s="411"/>
+      <c r="A9" s="553">
+        <v>44594</v>
+      </c>
+      <c r="B9" s="554" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" s="411">
+        <v>31559.200000000001</v>
+      </c>
+      <c r="D9" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E9" s="411">
+        <v>31559.200000000001</v>
+      </c>
       <c r="F9" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="288"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="111"/>
+      <c r="I9" s="413" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9" s="410">
+        <v>8490</v>
+      </c>
+      <c r="K9" s="411">
+        <v>69960</v>
+      </c>
       <c r="L9" s="288"/>
       <c r="M9" s="111"/>
       <c r="N9" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>179901.47999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="412"/>
-      <c r="B10" s="413"/>
-      <c r="C10" s="411"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="411"/>
+      <c r="A10" s="553">
+        <v>44595</v>
+      </c>
+      <c r="B10" s="554" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" s="411">
+        <v>43550.76</v>
+      </c>
+      <c r="D10" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E10" s="411">
+        <v>43550.76</v>
+      </c>
       <c r="F10" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="111"/>
+      <c r="I10" s="413" t="s">
+        <v>513</v>
+      </c>
+      <c r="J10" s="410">
+        <v>8497</v>
+      </c>
+      <c r="K10" s="411">
+        <v>2609.4</v>
+      </c>
       <c r="L10" s="288"/>
       <c r="M10" s="111"/>
       <c r="N10" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>182510.87999999998</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="412"/>
-      <c r="B11" s="413"/>
-      <c r="C11" s="411"/>
-      <c r="D11" s="424"/>
-      <c r="E11" s="411"/>
+      <c r="A11" s="553">
+        <v>44595</v>
+      </c>
+      <c r="B11" s="554" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="411">
+        <v>9720</v>
+      </c>
+      <c r="D11" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E11" s="411">
+        <v>9720</v>
+      </c>
       <c r="F11" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="288"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="111"/>
+      <c r="I11" s="413" t="s">
+        <v>513</v>
+      </c>
+      <c r="J11" s="410">
+        <v>8501</v>
+      </c>
+      <c r="K11" s="411">
+        <v>26863.200000000001</v>
+      </c>
       <c r="L11" s="288"/>
       <c r="M11" s="111"/>
       <c r="N11" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>209374.07999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="412"/>
-      <c r="B12" s="413"/>
-      <c r="C12" s="411"/>
-      <c r="D12" s="424"/>
-      <c r="E12" s="411"/>
+      <c r="A12" s="553">
+        <v>44595</v>
+      </c>
+      <c r="B12" s="554" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" s="411">
+        <v>2646</v>
+      </c>
+      <c r="D12" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E12" s="411">
+        <v>2646</v>
+      </c>
       <c r="F12" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="288"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="111"/>
+      <c r="I12" s="413" t="s">
+        <v>513</v>
+      </c>
+      <c r="J12" s="410">
+        <v>8502</v>
+      </c>
+      <c r="K12" s="411">
+        <v>1443.2</v>
+      </c>
       <c r="L12" s="288"/>
       <c r="M12" s="111"/>
       <c r="N12" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210817.28</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="412"/>
-      <c r="B13" s="413"/>
-      <c r="C13" s="411"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="411"/>
+      <c r="A13" s="553">
+        <v>44595</v>
+      </c>
+      <c r="B13" s="554" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="411">
+        <v>3166.5</v>
+      </c>
+      <c r="D13" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E13" s="411">
+        <v>3166.5</v>
+      </c>
       <c r="F13" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="288"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="111"/>
+      <c r="I13" s="413" t="s">
+        <v>514</v>
+      </c>
+      <c r="J13" s="410">
+        <v>8504</v>
+      </c>
+      <c r="K13" s="411">
+        <v>1760.2</v>
+      </c>
       <c r="L13" s="288"/>
       <c r="M13" s="111"/>
       <c r="N13" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>212577.48</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="412"/>
-      <c r="B14" s="413"/>
-      <c r="C14" s="411"/>
-      <c r="D14" s="424"/>
-      <c r="E14" s="411"/>
+      <c r="A14" s="553">
+        <v>44596</v>
+      </c>
+      <c r="B14" s="554" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="411">
+        <v>47607.24</v>
+      </c>
+      <c r="D14" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E14" s="411">
+        <v>47607.24</v>
+      </c>
       <c r="F14" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="288"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="111"/>
+      <c r="I14" s="413" t="s">
+        <v>514</v>
+      </c>
+      <c r="J14" s="410">
+        <v>8505</v>
+      </c>
+      <c r="K14" s="411">
+        <v>103232.8</v>
+      </c>
       <c r="L14" s="288"/>
       <c r="M14" s="111"/>
       <c r="N14" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>315810.28000000003</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="412"/>
-      <c r="B15" s="413"/>
-      <c r="C15" s="411"/>
-      <c r="D15" s="424"/>
-      <c r="E15" s="411"/>
+      <c r="A15" s="553">
+        <v>44596</v>
+      </c>
+      <c r="B15" s="554" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="411">
+        <v>65351.82</v>
+      </c>
+      <c r="D15" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E15" s="411">
+        <v>65351.82</v>
+      </c>
       <c r="F15" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="288"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="111"/>
+      <c r="I15" s="413" t="s">
+        <v>514</v>
+      </c>
+      <c r="J15" s="410">
+        <v>8506</v>
+      </c>
+      <c r="K15" s="411">
+        <v>16973.599999999999</v>
+      </c>
       <c r="L15" s="288"/>
       <c r="M15" s="111"/>
       <c r="N15" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>332783.88</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="412"/>
-      <c r="B16" s="413"/>
-      <c r="C16" s="411"/>
-      <c r="D16" s="424"/>
-      <c r="E16" s="411"/>
+      <c r="A16" s="553">
+        <v>44596</v>
+      </c>
+      <c r="B16" s="554" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" s="411">
+        <v>175.2</v>
+      </c>
+      <c r="D16" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E16" s="411">
+        <v>175.2</v>
+      </c>
       <c r="F16" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="288"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="111"/>
+      <c r="I16" s="413" t="s">
+        <v>515</v>
+      </c>
+      <c r="J16" s="410">
+        <v>8512</v>
+      </c>
+      <c r="K16" s="411">
+        <v>31269.200000000001</v>
+      </c>
       <c r="L16" s="288"/>
       <c r="M16" s="111"/>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>364053.08</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="412"/>
-      <c r="B17" s="413"/>
-      <c r="C17" s="411"/>
-      <c r="D17" s="425"/>
-      <c r="E17" s="411"/>
+      <c r="A17" s="553">
+        <v>44597</v>
+      </c>
+      <c r="B17" s="554" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="411">
+        <v>62468.800000000003</v>
+      </c>
+      <c r="D17" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E17" s="411">
+        <v>62468.800000000003</v>
+      </c>
       <c r="F17" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="288"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="111"/>
+      <c r="I17" s="413" t="s">
+        <v>516</v>
+      </c>
+      <c r="J17" s="410">
+        <v>8520</v>
+      </c>
+      <c r="K17" s="411">
+        <v>940</v>
+      </c>
       <c r="L17" s="288"/>
       <c r="M17" s="111"/>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>364993.08</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="412"/>
-      <c r="B18" s="413"/>
-      <c r="C18" s="411"/>
-      <c r="D18" s="424"/>
-      <c r="E18" s="411"/>
+      <c r="A18" s="553">
+        <v>44597</v>
+      </c>
+      <c r="B18" s="554" t="s">
+        <v>475</v>
+      </c>
+      <c r="C18" s="411">
+        <v>2476.5</v>
+      </c>
+      <c r="D18" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E18" s="411">
+        <v>2476.5</v>
+      </c>
       <c r="F18" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="288"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="111"/>
+      <c r="I18" s="413" t="s">
+        <v>516</v>
+      </c>
+      <c r="J18" s="410">
+        <v>8522</v>
+      </c>
+      <c r="K18" s="411">
+        <v>123992.8</v>
+      </c>
       <c r="L18" s="288"/>
       <c r="M18" s="111"/>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>488985.88</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="412"/>
-      <c r="B19" s="413"/>
-      <c r="C19" s="411"/>
-      <c r="D19" s="424"/>
-      <c r="E19" s="411"/>
+      <c r="A19" s="553">
+        <v>44599</v>
+      </c>
+      <c r="B19" s="554" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="411">
+        <v>3781.6</v>
+      </c>
+      <c r="D19" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E19" s="411">
+        <v>3781.6</v>
+      </c>
       <c r="F19" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="288"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="111"/>
+      <c r="I19" s="413" t="s">
+        <v>517</v>
+      </c>
+      <c r="J19" s="410">
+        <v>8526</v>
+      </c>
+      <c r="K19" s="411">
+        <v>15453.4</v>
+      </c>
       <c r="L19" s="288"/>
       <c r="M19" s="111"/>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>504439.28</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="412"/>
-      <c r="B20" s="413"/>
-      <c r="C20" s="411"/>
-      <c r="D20" s="424"/>
-      <c r="E20" s="411"/>
+      <c r="A20" s="553">
+        <v>44600</v>
+      </c>
+      <c r="B20" s="554" t="s">
+        <v>477</v>
+      </c>
+      <c r="C20" s="411">
+        <v>71765.55</v>
+      </c>
+      <c r="D20" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E20" s="411">
+        <v>71765.55</v>
+      </c>
       <c r="F20" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="288"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="111"/>
+      <c r="I20" s="413" t="s">
+        <v>518</v>
+      </c>
+      <c r="J20" s="410">
+        <v>8534</v>
+      </c>
+      <c r="K20" s="411">
+        <v>0</v>
+      </c>
       <c r="L20" s="288"/>
       <c r="M20" s="111"/>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>504439.28</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="412"/>
-      <c r="B21" s="413"/>
-      <c r="C21" s="411"/>
-      <c r="D21" s="424"/>
-      <c r="E21" s="411"/>
+      <c r="A21" s="553">
+        <v>44600</v>
+      </c>
+      <c r="B21" s="554" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="411">
+        <v>2798.4</v>
+      </c>
+      <c r="D21" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E21" s="411">
+        <v>2798.4</v>
+      </c>
       <c r="F21" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="288"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="111"/>
+      <c r="I21" s="413" t="s">
+        <v>518</v>
+      </c>
+      <c r="J21" s="410">
+        <v>8536</v>
+      </c>
+      <c r="K21" s="411">
+        <v>1596.8</v>
+      </c>
       <c r="L21" s="288"/>
       <c r="M21" s="111"/>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>506036.08</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="412"/>
-      <c r="B22" s="413"/>
-      <c r="C22" s="411"/>
-      <c r="D22" s="424"/>
-      <c r="E22" s="411"/>
+      <c r="A22" s="553">
+        <v>44601</v>
+      </c>
+      <c r="B22" s="554" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="411">
+        <v>8720.9</v>
+      </c>
+      <c r="D22" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E22" s="411">
+        <v>8720.9</v>
+      </c>
       <c r="F22" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="111"/>
+      <c r="I22" s="413" t="s">
+        <v>518</v>
+      </c>
+      <c r="J22" s="410">
+        <v>8540</v>
+      </c>
+      <c r="K22" s="411">
+        <v>7233.2</v>
+      </c>
       <c r="L22" s="288"/>
       <c r="M22" s="111"/>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>513269.28</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="412"/>
-      <c r="B23" s="413"/>
-      <c r="C23" s="411"/>
-      <c r="D23" s="424"/>
-      <c r="E23" s="411"/>
+      <c r="A23" s="553">
+        <v>44601</v>
+      </c>
+      <c r="B23" s="554" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="411">
+        <v>55980</v>
+      </c>
+      <c r="D23" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E23" s="411">
+        <v>55980</v>
+      </c>
       <c r="F23" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="288"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="111"/>
+      <c r="I23" s="413" t="s">
+        <v>519</v>
+      </c>
+      <c r="J23" s="410">
+        <v>8545</v>
+      </c>
+      <c r="K23" s="411">
+        <v>7654.4</v>
+      </c>
       <c r="L23" s="288"/>
       <c r="M23" s="111"/>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>520923.68000000005</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="412"/>
-      <c r="B24" s="413"/>
-      <c r="C24" s="411"/>
-      <c r="D24" s="424"/>
-      <c r="E24" s="411"/>
+      <c r="A24" s="553">
+        <v>44601</v>
+      </c>
+      <c r="B24" s="554" t="s">
+        <v>481</v>
+      </c>
+      <c r="C24" s="411">
+        <v>6934.5</v>
+      </c>
+      <c r="D24" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E24" s="411">
+        <v>6934.5</v>
+      </c>
       <c r="F24" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="288"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="111"/>
+      <c r="I24" s="413" t="s">
+        <v>519</v>
+      </c>
+      <c r="J24" s="410">
+        <v>8546</v>
+      </c>
+      <c r="K24" s="411">
+        <v>270</v>
+      </c>
       <c r="L24" s="288"/>
       <c r="M24" s="111"/>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>521193.68000000005</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="412"/>
-      <c r="B25" s="413"/>
-      <c r="C25" s="411"/>
-      <c r="D25" s="424"/>
-      <c r="E25" s="411"/>
+      <c r="A25" s="553">
+        <v>44602</v>
+      </c>
+      <c r="B25" s="554" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25" s="411">
+        <v>27574.5</v>
+      </c>
+      <c r="D25" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E25" s="411">
+        <v>27574.5</v>
+      </c>
       <c r="F25" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="288"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="111"/>
+      <c r="I25" s="413" t="s">
+        <v>520</v>
+      </c>
+      <c r="J25" s="410">
+        <v>8551</v>
+      </c>
+      <c r="K25" s="411">
+        <v>583.20000000000005</v>
+      </c>
       <c r="L25" s="288"/>
       <c r="M25" s="111"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>521776.88000000006</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="412"/>
-      <c r="B26" s="413"/>
-      <c r="C26" s="411"/>
-      <c r="D26" s="424"/>
-      <c r="E26" s="411"/>
+      <c r="A26" s="553">
+        <v>44603</v>
+      </c>
+      <c r="B26" s="554" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="411">
+        <v>32211.8</v>
+      </c>
+      <c r="D26" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E26" s="411">
+        <v>32211.8</v>
+      </c>
       <c r="F26" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="288"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="111"/>
+      <c r="I26" s="413" t="s">
+        <v>521</v>
+      </c>
+      <c r="J26" s="410">
+        <v>8558</v>
+      </c>
+      <c r="K26" s="411">
+        <v>2462.8000000000002</v>
+      </c>
       <c r="L26" s="288"/>
       <c r="M26" s="111"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>524239.68000000005</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="412"/>
-      <c r="B27" s="413"/>
-      <c r="C27" s="411"/>
-      <c r="D27" s="425"/>
-      <c r="E27" s="411"/>
+      <c r="A27" s="553">
+        <v>44603</v>
+      </c>
+      <c r="B27" s="554" t="s">
+        <v>484</v>
+      </c>
+      <c r="C27" s="411">
+        <v>400</v>
+      </c>
+      <c r="D27" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E27" s="411">
+        <v>400</v>
+      </c>
       <c r="F27" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="288"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="111"/>
+      <c r="I27" s="413" t="s">
+        <v>522</v>
+      </c>
+      <c r="J27" s="410">
+        <v>8564</v>
+      </c>
+      <c r="K27" s="411">
+        <v>3085.4</v>
+      </c>
       <c r="L27" s="288"/>
       <c r="M27" s="111"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>527325.08000000007</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="412"/>
-      <c r="B28" s="413"/>
-      <c r="C28" s="411"/>
-      <c r="D28" s="424"/>
-      <c r="E28" s="411"/>
+      <c r="A28" s="553">
+        <v>44604</v>
+      </c>
+      <c r="B28" s="554" t="s">
+        <v>485</v>
+      </c>
+      <c r="C28" s="411">
+        <v>55111.8</v>
+      </c>
+      <c r="D28" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E28" s="411">
+        <v>55111.8</v>
+      </c>
       <c r="F28" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="288"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="111"/>
+      <c r="I28" s="413" t="s">
+        <v>523</v>
+      </c>
+      <c r="J28" s="410">
+        <v>8573</v>
+      </c>
+      <c r="K28" s="411">
+        <v>2662.4</v>
+      </c>
       <c r="L28" s="288"/>
       <c r="M28" s="111"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>529987.4800000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="412"/>
-      <c r="B29" s="413"/>
-      <c r="C29" s="411"/>
-      <c r="D29" s="424"/>
-      <c r="E29" s="411"/>
+      <c r="A29" s="553">
+        <v>44604</v>
+      </c>
+      <c r="B29" s="554" t="s">
+        <v>486</v>
+      </c>
+      <c r="C29" s="411">
+        <v>149188.5</v>
+      </c>
+      <c r="D29" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E29" s="411">
+        <v>149188.5</v>
+      </c>
       <c r="F29" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="288"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="111"/>
+      <c r="I29" s="413" t="s">
+        <v>524</v>
+      </c>
+      <c r="J29" s="410">
+        <v>8577</v>
+      </c>
+      <c r="K29" s="411">
+        <v>2100</v>
+      </c>
       <c r="L29" s="288"/>
       <c r="M29" s="111"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>532087.4800000001</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="412"/>
-      <c r="B30" s="413"/>
-      <c r="C30" s="411"/>
-      <c r="D30" s="424"/>
-      <c r="E30" s="411"/>
+      <c r="A30" s="553">
+        <v>44604</v>
+      </c>
+      <c r="B30" s="554" t="s">
+        <v>487</v>
+      </c>
+      <c r="C30" s="411">
+        <v>4932</v>
+      </c>
+      <c r="D30" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E30" s="411">
+        <v>4932</v>
+      </c>
       <c r="F30" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="288"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="111"/>
+      <c r="I30" s="413" t="s">
+        <v>525</v>
+      </c>
+      <c r="J30" s="410">
+        <v>8581</v>
+      </c>
+      <c r="K30" s="411">
+        <v>8324.6</v>
+      </c>
       <c r="L30" s="288"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>540412.08000000007</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="412"/>
-      <c r="B31" s="413"/>
-      <c r="C31" s="411"/>
-      <c r="D31" s="424"/>
-      <c r="E31" s="411"/>
+      <c r="A31" s="553">
+        <v>44604</v>
+      </c>
+      <c r="B31" s="554" t="s">
+        <v>488</v>
+      </c>
+      <c r="C31" s="411">
+        <v>16409.900000000001</v>
+      </c>
+      <c r="D31" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E31" s="411">
+        <v>16409.900000000001</v>
+      </c>
       <c r="F31" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="288"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="111"/>
+      <c r="I31" s="413" t="s">
+        <v>526</v>
+      </c>
+      <c r="J31" s="410">
+        <v>8588</v>
+      </c>
+      <c r="K31" s="411">
+        <v>730.4</v>
+      </c>
       <c r="L31" s="288"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>541142.4800000001</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="412"/>
-      <c r="B32" s="413"/>
-      <c r="C32" s="411"/>
-      <c r="D32" s="424"/>
-      <c r="E32" s="411"/>
+      <c r="A32" s="553">
+        <v>44606</v>
+      </c>
+      <c r="B32" s="554" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" s="411">
+        <v>38081.4</v>
+      </c>
+      <c r="D32" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E32" s="411">
+        <v>38081.4</v>
+      </c>
       <c r="F32" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="288"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="111"/>
+      <c r="I32" s="413" t="s">
+        <v>526</v>
+      </c>
+      <c r="J32" s="410">
+        <v>8589</v>
+      </c>
+      <c r="K32" s="411">
+        <v>2296</v>
+      </c>
       <c r="L32" s="288"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>543438.4800000001</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="412"/>
-      <c r="B33" s="413"/>
-      <c r="C33" s="411"/>
-      <c r="D33" s="424"/>
-      <c r="E33" s="411"/>
+      <c r="A33" s="553">
+        <v>44607</v>
+      </c>
+      <c r="B33" s="554" t="s">
+        <v>490</v>
+      </c>
+      <c r="C33" s="411">
+        <v>42433.4</v>
+      </c>
+      <c r="D33" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E33" s="411">
+        <v>42433.4</v>
+      </c>
       <c r="F33" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="288"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="111"/>
+      <c r="I33" s="413" t="s">
+        <v>527</v>
+      </c>
+      <c r="J33" s="410">
+        <v>8599</v>
+      </c>
+      <c r="K33" s="411">
+        <v>4034.6</v>
+      </c>
       <c r="L33" s="288"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>547473.08000000007</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="412"/>
-      <c r="B34" s="413"/>
-      <c r="C34" s="411"/>
-      <c r="D34" s="424"/>
-      <c r="E34" s="411"/>
+      <c r="A34" s="553">
+        <v>44607</v>
+      </c>
+      <c r="B34" s="554" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" s="411">
+        <v>46641.599999999999</v>
+      </c>
+      <c r="D34" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E34" s="411">
+        <v>46641.599999999999</v>
+      </c>
       <c r="F34" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I34" s="288"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="111"/>
+      <c r="I34" s="413" t="s">
+        <v>528</v>
+      </c>
+      <c r="J34" s="410">
+        <v>8611</v>
+      </c>
+      <c r="K34" s="411">
+        <v>360</v>
+      </c>
       <c r="L34" s="288"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>547833.08000000007</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="412"/>
-      <c r="B35" s="413"/>
-      <c r="C35" s="411"/>
-      <c r="D35" s="424"/>
-      <c r="E35" s="411"/>
+      <c r="A35" s="553">
+        <v>44607</v>
+      </c>
+      <c r="B35" s="554" t="s">
+        <v>492</v>
+      </c>
+      <c r="C35" s="411">
+        <v>840</v>
+      </c>
+      <c r="D35" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E35" s="411">
+        <v>840</v>
+      </c>
       <c r="F35" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I35" s="288"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="111"/>
+      <c r="I35" s="413" t="s">
+        <v>528</v>
+      </c>
+      <c r="J35" s="410">
+        <v>8614</v>
+      </c>
+      <c r="K35" s="411">
+        <v>2121</v>
+      </c>
       <c r="L35" s="288"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>549954.08000000007</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="412"/>
-      <c r="B36" s="413"/>
-      <c r="C36" s="411"/>
-      <c r="D36" s="424"/>
-      <c r="E36" s="411"/>
+      <c r="A36" s="553">
+        <v>44608</v>
+      </c>
+      <c r="B36" s="554" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" s="411">
+        <v>34550.68</v>
+      </c>
+      <c r="D36" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E36" s="411">
+        <v>34550.68</v>
+      </c>
       <c r="F36" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="288"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="111"/>
+      <c r="I36" s="413" t="s">
+        <v>529</v>
+      </c>
+      <c r="J36" s="410">
+        <v>8617</v>
+      </c>
+      <c r="K36" s="411">
+        <v>2600</v>
+      </c>
       <c r="L36" s="288"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>552554.08000000007</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="412"/>
-      <c r="B37" s="413"/>
-      <c r="C37" s="411"/>
-      <c r="D37" s="424"/>
-      <c r="E37" s="411"/>
+      <c r="A37" s="553">
+        <v>44608</v>
+      </c>
+      <c r="B37" s="554" t="s">
+        <v>494</v>
+      </c>
+      <c r="C37" s="411">
+        <v>5383.2</v>
+      </c>
+      <c r="D37" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E37" s="411">
+        <v>5383.2</v>
+      </c>
       <c r="F37" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="288"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="111"/>
+      <c r="I37" s="413" t="s">
+        <v>530</v>
+      </c>
+      <c r="J37" s="410">
+        <v>8627</v>
+      </c>
+      <c r="K37" s="411">
+        <v>620</v>
+      </c>
       <c r="L37" s="288"/>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>553174.08000000007</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="412"/>
-      <c r="B38" s="431"/>
-      <c r="C38" s="432"/>
-      <c r="D38" s="433"/>
-      <c r="E38" s="432"/>
+      <c r="A38" s="553">
+        <v>44609</v>
+      </c>
+      <c r="B38" s="555" t="s">
+        <v>495</v>
+      </c>
+      <c r="C38" s="430">
+        <v>38249.040000000001</v>
+      </c>
+      <c r="D38" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E38" s="430">
+        <v>38249.040000000001</v>
+      </c>
       <c r="F38" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="288"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="111"/>
+      <c r="I38" s="413" t="s">
+        <v>531</v>
+      </c>
+      <c r="J38" s="410">
+        <v>8631</v>
+      </c>
+      <c r="K38" s="411">
+        <v>858.6</v>
+      </c>
       <c r="L38" s="288"/>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="412"/>
-      <c r="B39" s="245"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="434"/>
-      <c r="E39" s="111"/>
+      <c r="A39" s="553">
+        <v>44610</v>
+      </c>
+      <c r="B39" s="246" t="s">
+        <v>496</v>
+      </c>
+      <c r="C39" s="111">
+        <v>74963.399999999994</v>
+      </c>
+      <c r="D39" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E39" s="111">
+        <v>74963.399999999994</v>
+      </c>
       <c r="F39" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10300,15 +11148,25 @@
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="412"/>
-      <c r="B40" s="245"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="434"/>
-      <c r="E40" s="111"/>
+      <c r="A40" s="553">
+        <v>44610</v>
+      </c>
+      <c r="B40" s="246" t="s">
+        <v>497</v>
+      </c>
+      <c r="C40" s="111">
+        <v>9270</v>
+      </c>
+      <c r="D40" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E40" s="111">
+        <v>9270</v>
+      </c>
       <c r="F40" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10320,15 +11178,25 @@
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="412"/>
-      <c r="B41" s="245"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="434"/>
-      <c r="E41" s="111"/>
+      <c r="A41" s="553">
+        <v>44611</v>
+      </c>
+      <c r="B41" s="246" t="s">
+        <v>498</v>
+      </c>
+      <c r="C41" s="111">
+        <v>85719.4</v>
+      </c>
+      <c r="D41" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E41" s="111">
+        <v>85719.4</v>
+      </c>
       <c r="F41" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10340,15 +11208,25 @@
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="430"/>
-      <c r="B42" s="246"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="253"/>
-      <c r="E42" s="69"/>
+      <c r="A42" s="556">
+        <v>44611</v>
+      </c>
+      <c r="B42" s="246" t="s">
+        <v>499</v>
+      </c>
+      <c r="C42" s="111">
+        <v>21012.48</v>
+      </c>
+      <c r="D42" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E42" s="111">
+        <v>21012.48</v>
+      </c>
       <c r="F42" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10360,15 +11238,25 @@
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="430"/>
-      <c r="B43" s="435"/>
-      <c r="C43" s="435"/>
-      <c r="D43" s="435"/>
-      <c r="E43" s="435"/>
+      <c r="A43" s="556">
+        <v>44613</v>
+      </c>
+      <c r="B43" s="557" t="s">
+        <v>500</v>
+      </c>
+      <c r="C43" s="111">
+        <v>16586.599999999999</v>
+      </c>
+      <c r="D43" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E43" s="111">
+        <v>16586.599999999999</v>
+      </c>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10380,15 +11268,25 @@
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="430"/>
-      <c r="B44" s="435"/>
-      <c r="C44" s="435"/>
-      <c r="D44" s="435"/>
-      <c r="E44" s="435"/>
+      <c r="A44" s="556">
+        <v>44613</v>
+      </c>
+      <c r="B44" s="557" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" s="111">
+        <v>16100</v>
+      </c>
+      <c r="D44" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E44" s="111">
+        <v>16100</v>
+      </c>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10400,15 +11298,25 @@
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="430"/>
-      <c r="B45" s="435"/>
-      <c r="C45" s="435"/>
-      <c r="D45" s="435"/>
-      <c r="E45" s="435"/>
+      <c r="A45" s="556">
+        <v>44614</v>
+      </c>
+      <c r="B45" s="557" t="s">
+        <v>502</v>
+      </c>
+      <c r="C45" s="111">
+        <v>86111.8</v>
+      </c>
+      <c r="D45" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E45" s="111">
+        <v>86111.8</v>
+      </c>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10420,15 +11328,25 @@
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="430"/>
-      <c r="B46" s="246"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="253"/>
-      <c r="E46" s="69"/>
+      <c r="A46" s="556">
+        <v>44615</v>
+      </c>
+      <c r="B46" s="246" t="s">
+        <v>503</v>
+      </c>
+      <c r="C46" s="111">
+        <v>49782.6</v>
+      </c>
+      <c r="D46" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E46" s="111">
+        <v>49782.6</v>
+      </c>
       <c r="F46" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10440,78 +11358,102 @@
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="245"/>
-      <c r="B47" s="246"/>
-      <c r="C47" s="111"/>
+      <c r="A47" s="558">
+        <v>44616</v>
+      </c>
+      <c r="B47" s="246" t="s">
+        <v>504</v>
+      </c>
+      <c r="C47" s="111">
+        <v>61856.639999999999</v>
+      </c>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
-        <f t="shared" ref="F47:F78" si="2">F46+C47-E47</f>
-        <v>0</v>
+        <f>C47-E47</f>
+        <v>61856.639999999999</v>
       </c>
       <c r="I47" s="351"/>
-      <c r="J47" s="439"/>
+      <c r="J47" s="433"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="440"/>
+      <c r="L47" s="434"/>
       <c r="M47" s="215"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="245"/>
-      <c r="B48" s="246"/>
-      <c r="C48" s="111"/>
+      <c r="A48" s="558">
+        <v>44617</v>
+      </c>
+      <c r="B48" s="246" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48" s="111">
+        <v>145889.51999999999</v>
+      </c>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="F48:F50" si="2">C48-E48</f>
+        <v>145889.51999999999</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="436"/>
-      <c r="K48" s="436"/>
-      <c r="L48" s="436"/>
+      <c r="J48" s="431"/>
+      <c r="K48" s="431"/>
+      <c r="L48" s="431"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="69"/>
+      <c r="A49" s="559">
+        <v>44617</v>
+      </c>
+      <c r="B49" s="560" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49" s="111">
+        <v>200</v>
+      </c>
       <c r="D49" s="253"/>
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="436"/>
-      <c r="K49" s="436"/>
-      <c r="L49" s="436"/>
+      <c r="J49" s="431"/>
+      <c r="K49" s="431"/>
+      <c r="L49" s="431"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="69"/>
+      <c r="A50" s="561">
+        <v>44617</v>
+      </c>
+      <c r="B50" s="562" t="s">
+        <v>507</v>
+      </c>
+      <c r="C50" s="111">
+        <v>2373.8000000000002</v>
+      </c>
       <c r="D50" s="253"/>
       <c r="E50" s="69"/>
       <c r="F50" s="137">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I50" s="134"/>
       <c r="J50" s="428"/>
@@ -10522,18 +11464,18 @@
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="69"/>
+      <c r="A51" s="561"/>
+      <c r="B51" s="562"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="253"/>
       <c r="E51" s="69"/>
       <c r="F51" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="F47:F78" si="3">F50+C51-E51</f>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I51" s="134"/>
       <c r="J51" s="139"/>
@@ -10542,18 +11484,18 @@
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="69"/>
+      <c r="A52" s="561"/>
+      <c r="B52" s="562"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="253"/>
       <c r="E52" s="69"/>
       <c r="F52" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I52" s="134"/>
       <c r="J52" s="139"/>
@@ -10562,18 +11504,18 @@
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="134"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="69"/>
+      <c r="A53" s="561"/>
+      <c r="B53" s="562"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="253"/>
       <c r="E53" s="69"/>
       <c r="F53" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I53" s="134"/>
       <c r="J53" s="139"/>
@@ -10582,18 +11524,18 @@
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="134"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="69"/>
+      <c r="A54" s="561"/>
+      <c r="B54" s="562"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="253"/>
       <c r="E54" s="69"/>
       <c r="F54" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I54" s="134"/>
       <c r="J54" s="139"/>
@@ -10602,18 +11544,18 @@
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="134"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="69"/>
+      <c r="A55" s="561"/>
+      <c r="B55" s="562"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="253"/>
       <c r="E55" s="69"/>
       <c r="F55" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I55" s="134"/>
       <c r="J55" s="139"/>
@@ -10622,18 +11564,18 @@
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="134"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="69"/>
+      <c r="A56" s="561"/>
+      <c r="B56" s="562"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="253"/>
       <c r="E56" s="69"/>
       <c r="F56" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I56" s="134"/>
       <c r="J56" s="139"/>
@@ -10642,18 +11584,18 @@
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="134"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="69"/>
+      <c r="A57" s="561"/>
+      <c r="B57" s="562"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="253"/>
       <c r="E57" s="69"/>
       <c r="F57" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I57" s="134"/>
       <c r="J57" s="139"/>
@@ -10662,18 +11604,18 @@
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="69"/>
+      <c r="A58" s="561"/>
+      <c r="B58" s="562"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="253"/>
       <c r="E58" s="69"/>
       <c r="F58" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I58" s="134"/>
       <c r="J58" s="139"/>
@@ -10682,18 +11624,18 @@
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="134"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="69"/>
+      <c r="A59" s="561"/>
+      <c r="B59" s="562"/>
+      <c r="C59" s="111"/>
       <c r="D59" s="253"/>
       <c r="E59" s="69"/>
       <c r="F59" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I59" s="134"/>
       <c r="J59" s="139"/>
@@ -10702,18 +11644,18 @@
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="134"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="69"/>
+      <c r="A60" s="561"/>
+      <c r="B60" s="562"/>
+      <c r="C60" s="111"/>
       <c r="D60" s="253"/>
       <c r="E60" s="69"/>
       <c r="F60" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I60" s="134"/>
       <c r="J60" s="139"/>
@@ -10722,18 +11664,18 @@
       <c r="M60" s="69"/>
       <c r="N60" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="134"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="69"/>
+      <c r="A61" s="561"/>
+      <c r="B61" s="562"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="253"/>
       <c r="E61" s="69"/>
       <c r="F61" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I61" s="134"/>
       <c r="J61" s="139"/>
@@ -10742,18 +11684,18 @@
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="134"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="69"/>
+      <c r="A62" s="561"/>
+      <c r="B62" s="562"/>
+      <c r="C62" s="111"/>
       <c r="D62" s="254"/>
       <c r="E62" s="69"/>
       <c r="F62" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I62" s="357"/>
       <c r="J62" s="358"/>
@@ -10762,18 +11704,18 @@
       <c r="M62" s="34"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="134"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="69"/>
+      <c r="A63" s="561"/>
+      <c r="B63" s="562"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="254"/>
       <c r="E63" s="69"/>
       <c r="F63" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I63" s="357"/>
       <c r="J63" s="358"/>
@@ -10782,18 +11724,18 @@
       <c r="M63" s="34"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="134"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="69"/>
+      <c r="A64" s="561"/>
+      <c r="B64" s="562"/>
+      <c r="C64" s="111"/>
       <c r="D64" s="254"/>
       <c r="E64" s="69"/>
       <c r="F64" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I64" s="357"/>
       <c r="J64" s="358"/>
@@ -10802,18 +11744,18 @@
       <c r="M64" s="34"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="134"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="69"/>
+      <c r="A65" s="561"/>
+      <c r="B65" s="562"/>
+      <c r="C65" s="111"/>
       <c r="D65" s="254"/>
       <c r="E65" s="69"/>
       <c r="F65" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I65" s="357"/>
       <c r="J65" s="358"/>
@@ -10822,18 +11764,18 @@
       <c r="M65" s="34"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="134"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="69"/>
+      <c r="A66" s="561"/>
+      <c r="B66" s="562"/>
+      <c r="C66" s="111"/>
       <c r="D66" s="254"/>
       <c r="E66" s="69"/>
       <c r="F66" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I66" s="357"/>
       <c r="J66" s="358"/>
@@ -10842,18 +11784,18 @@
       <c r="M66" s="34"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="357"/>
-      <c r="B67" s="358"/>
-      <c r="C67" s="34"/>
+      <c r="A67" s="563"/>
+      <c r="B67" s="564"/>
+      <c r="C67" s="233"/>
       <c r="D67" s="118"/>
       <c r="E67" s="34"/>
       <c r="F67" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I67" s="357"/>
       <c r="J67" s="358"/>
@@ -10862,18 +11804,18 @@
       <c r="M67" s="34"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="134"/>
-      <c r="B68" s="139"/>
-      <c r="C68" s="69"/>
+      <c r="A68" s="561"/>
+      <c r="B68" s="562"/>
+      <c r="C68" s="111"/>
       <c r="D68" s="254"/>
       <c r="E68" s="69"/>
       <c r="F68" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I68" s="134"/>
       <c r="J68" s="139"/>
@@ -10882,18 +11824,18 @@
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="134"/>
-      <c r="B69" s="139"/>
-      <c r="C69" s="69"/>
+      <c r="A69" s="561"/>
+      <c r="B69" s="562"/>
+      <c r="C69" s="111"/>
       <c r="D69" s="254"/>
       <c r="E69" s="69"/>
       <c r="F69" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I69" s="134"/>
       <c r="J69" s="139"/>
@@ -10901,19 +11843,19 @@
       <c r="L69" s="148"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
-        <f t="shared" ref="N69:N78" si="3">N68+K69-M69</f>
-        <v>0</v>
+        <f t="shared" ref="N69:N78" si="4">N68+K69-M69</f>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="134"/>
-      <c r="B70" s="139"/>
-      <c r="C70" s="69"/>
+      <c r="A70" s="561"/>
+      <c r="B70" s="562"/>
+      <c r="C70" s="111"/>
       <c r="D70" s="254"/>
       <c r="E70" s="69"/>
       <c r="F70" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I70" s="134"/>
       <c r="J70" s="139"/>
@@ -10921,19 +11863,19 @@
       <c r="L70" s="148"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="134"/>
-      <c r="B71" s="139"/>
-      <c r="C71" s="69"/>
+      <c r="A71" s="561"/>
+      <c r="B71" s="562"/>
+      <c r="C71" s="111"/>
       <c r="D71" s="254"/>
       <c r="E71" s="69"/>
       <c r="F71" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I71" s="134"/>
       <c r="J71" s="139"/>
@@ -10941,19 +11883,19 @@
       <c r="L71" s="148"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="134"/>
-      <c r="B72" s="139"/>
-      <c r="C72" s="69"/>
+      <c r="A72" s="561"/>
+      <c r="B72" s="562"/>
+      <c r="C72" s="111"/>
       <c r="D72" s="254"/>
       <c r="E72" s="69"/>
       <c r="F72" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I72" s="134"/>
       <c r="J72" s="139"/>
@@ -10961,19 +11903,19 @@
       <c r="L72" s="148"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="134"/>
-      <c r="B73" s="139"/>
-      <c r="C73" s="69"/>
+      <c r="A73" s="561"/>
+      <c r="B73" s="562"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="254"/>
       <c r="E73" s="69"/>
       <c r="F73" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I73" s="134"/>
       <c r="J73" s="139"/>
@@ -10981,19 +11923,19 @@
       <c r="L73" s="148"/>
       <c r="M73" s="69"/>
       <c r="N73" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="134"/>
-      <c r="B74" s="139"/>
-      <c r="C74" s="69"/>
+      <c r="A74" s="561"/>
+      <c r="B74" s="562"/>
+      <c r="C74" s="111"/>
       <c r="D74" s="254"/>
       <c r="E74" s="69"/>
       <c r="F74" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2373.8000000000002</v>
       </c>
       <c r="I74" s="134"/>
       <c r="J74" s="139"/>
@@ -11001,19 +11943,25 @@
       <c r="L74" s="148"/>
       <c r="M74" s="69"/>
       <c r="N74" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="134"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="69"/>
+      <c r="A75" s="561">
+        <v>44618</v>
+      </c>
+      <c r="B75" s="562" t="s">
+        <v>508</v>
+      </c>
+      <c r="C75" s="111">
+        <v>40377.15</v>
+      </c>
       <c r="D75" s="254"/>
       <c r="E75" s="69"/>
       <c r="F75" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>42750.950000000004</v>
       </c>
       <c r="I75" s="134"/>
       <c r="J75" s="139"/>
@@ -11021,8 +11969,8 @@
       <c r="L75" s="148"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11032,8 +11980,8 @@
       <c r="D76" s="254"/>
       <c r="E76" s="69"/>
       <c r="F76" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>42750.950000000004</v>
       </c>
       <c r="I76" s="134"/>
       <c r="J76" s="139"/>
@@ -11041,8 +11989,8 @@
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11052,8 +12000,8 @@
       <c r="D77" s="254"/>
       <c r="E77" s="69"/>
       <c r="F77" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>42750.950000000004</v>
       </c>
       <c r="I77" s="134"/>
       <c r="J77" s="139"/>
@@ -11061,8 +12009,8 @@
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11074,7 +12022,6 @@
       <c r="D78" s="255"/>
       <c r="E78" s="151"/>
       <c r="F78" s="137">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I78" s="149"/>
@@ -11085,28 +12032,28 @@
       <c r="L78" s="152"/>
       <c r="M78" s="151"/>
       <c r="N78" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B79" s="211"/>
       <c r="C79" s="212">
         <f>SUM(C3:C78)</f>
-        <v>0</v>
+        <v>1702928.1400000001</v>
       </c>
       <c r="D79" s="426"/>
       <c r="E79" s="414">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>1452231.0300000003</v>
       </c>
       <c r="F79" s="153">
-        <f>SUM(F3:F78)</f>
-        <v>0</v>
+        <f>C79-E79</f>
+        <v>250697.10999999987</v>
       </c>
       <c r="K79" s="209">
         <f>SUM(K3:K78)</f>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
       <c r="L79" s="209"/>
       <c r="M79" s="209">
@@ -11115,7 +12062,7 @@
       </c>
       <c r="N79" s="153">
         <f>N78</f>
-        <v>0</v>
+        <v>554032.68000000005</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11123,7 +12070,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="512" t="s">
+      <c r="F80" s="506" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -11136,7 +12083,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="513"/>
+      <c r="F81" s="507"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -11446,11 +12393,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="543" t="s">
+      <c r="C1" s="537" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="544"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="538"/>
       <c r="F1" s="387"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -11468,12 +12415,12 @@
       <c r="F3" s="394"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="545" t="s">
+      <c r="B4" s="539" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="546"/>
-      <c r="D4" s="546"/>
-      <c r="E4" s="546"/>
+      <c r="C4" s="540"/>
+      <c r="D4" s="540"/>
+      <c r="E4" s="540"/>
       <c r="F4" s="395">
         <v>499853.16</v>
       </c>
@@ -11488,12 +12435,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="541" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="548"/>
-      <c r="D6" s="548"/>
-      <c r="E6" s="548"/>
+      <c r="C6" s="542"/>
+      <c r="D6" s="542"/>
+      <c r="E6" s="542"/>
       <c r="F6" s="395">
         <v>781251.72</v>
       </c>
@@ -11511,10 +12458,10 @@
       <c r="B8" s="388"/>
       <c r="C8" s="381"/>
       <c r="D8" s="382"/>
-      <c r="E8" s="549" t="s">
+      <c r="E8" s="543" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="551">
+      <c r="F8" s="545">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -11523,8 +12470,8 @@
       <c r="B9" s="388"/>
       <c r="C9" s="381"/>
       <c r="D9" s="382"/>
-      <c r="E9" s="550"/>
-      <c r="F9" s="552"/>
+      <c r="E9" s="544"/>
+      <c r="F9" s="546"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="388"/>
@@ -11548,12 +12495,12 @@
       <c r="F12" s="394"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="553" t="s">
+      <c r="B13" s="547" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="554"/>
-      <c r="D13" s="554"/>
-      <c r="E13" s="554"/>
+      <c r="C13" s="548"/>
+      <c r="D13" s="548"/>
+      <c r="E13" s="548"/>
       <c r="F13" s="395">
         <v>255460.4</v>
       </c>
@@ -11568,12 +12515,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="553" t="s">
+      <c r="B15" s="547" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="554"/>
-      <c r="D15" s="554"/>
-      <c r="E15" s="554"/>
+      <c r="C15" s="548"/>
+      <c r="D15" s="548"/>
+      <c r="E15" s="548"/>
       <c r="F15" s="395">
         <v>6037.34</v>
       </c>
@@ -11591,10 +12538,10 @@
       <c r="B17" s="388"/>
       <c r="C17" s="381"/>
       <c r="D17" s="382"/>
-      <c r="E17" s="555" t="s">
+      <c r="E17" s="549" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="557">
+      <c r="F17" s="551">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -11603,8 +12550,8 @@
       <c r="B18" s="388"/>
       <c r="C18" s="381"/>
       <c r="D18" s="382"/>
-      <c r="E18" s="556"/>
-      <c r="F18" s="558"/>
+      <c r="E18" s="550"/>
+      <c r="F18" s="552"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="388"/>
@@ -11628,22 +12575,22 @@
       <c r="F21" s="394"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="537" t="s">
+      <c r="B22" s="531" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="538"/>
-      <c r="D22" s="538"/>
-      <c r="E22" s="538"/>
-      <c r="F22" s="541">
+      <c r="C22" s="532"/>
+      <c r="D22" s="532"/>
+      <c r="E22" s="532"/>
+      <c r="F22" s="535">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="539"/>
-      <c r="C23" s="540"/>
-      <c r="D23" s="540"/>
-      <c r="E23" s="540"/>
-      <c r="F23" s="542"/>
+      <c r="B23" s="533"/>
+      <c r="C23" s="534"/>
+      <c r="D23" s="534"/>
+      <c r="E23" s="534"/>
+      <c r="F23" s="536"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="355"/>
@@ -13003,7 +13950,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="485" t="s">
+      <c r="B41" s="479" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -13035,7 +13982,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="486"/>
+      <c r="B42" s="480"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -14631,23 +15578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="444"/>
+      <c r="C1" s="446" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="447"/>
+      <c r="E1" s="447"/>
+      <c r="F1" s="447"/>
+      <c r="G1" s="447"/>
+      <c r="H1" s="447"/>
+      <c r="I1" s="447"/>
+      <c r="J1" s="447"/>
+      <c r="K1" s="447"/>
+      <c r="L1" s="447"/>
+      <c r="M1" s="447"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="445"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14657,21 +15604,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="449"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="450" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="450"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="487" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14686,14 +15633,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="452"/>
+      <c r="H4" s="453" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="454"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14703,14 +15650,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="488"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="487" t="s">
+      <c r="W4" s="497" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="497"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14761,8 +15708,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="497"/>
+      <c r="X5" s="497"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15533,7 +16480,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="501">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -15585,7 +16532,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="502"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15634,8 +16581,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="503"/>
+      <c r="X21" s="503"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15736,8 +16683,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="504"/>
+      <c r="X23" s="504"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15791,8 +16738,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="504"/>
+      <c r="X24" s="504"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15838,8 +16785,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="505"/>
+      <c r="X25" s="505"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15890,8 +16837,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="505"/>
+      <c r="X26" s="505"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15939,9 +16886,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="498"/>
+      <c r="X27" s="499"/>
+      <c r="Y27" s="500"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15991,9 +16938,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="499"/>
+      <c r="X28" s="499"/>
+      <c r="Y28" s="500"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16328,11 +17275,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="506">
+      <c r="M36" s="489">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="491">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -16340,7 +17287,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="493">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -16375,13 +17322,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="490"/>
+      <c r="N37" s="492"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="494"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -16671,26 +17618,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="467"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="468">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="495"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="472" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="472"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -16699,29 +17646,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="496" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="496"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="473" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="474"/>
+      <c r="K54" s="475">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="470"/>
-      <c r="M54" s="498" t="s">
+      <c r="L54" s="475"/>
+      <c r="M54" s="481" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="499"/>
-      <c r="O54" s="499"/>
-      <c r="P54" s="499"/>
-      <c r="Q54" s="500"/>
+      <c r="N54" s="482"/>
+      <c r="O54" s="482"/>
+      <c r="P54" s="482"/>
+      <c r="Q54" s="483"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -16735,11 +17682,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="501"/>
-      <c r="N55" s="502"/>
-      <c r="O55" s="502"/>
-      <c r="P55" s="502"/>
-      <c r="Q55" s="503"/>
+      <c r="M55" s="484"/>
+      <c r="N55" s="485"/>
+      <c r="O55" s="485"/>
+      <c r="P55" s="485"/>
+      <c r="Q55" s="486"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -16757,11 +17704,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="477">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="478"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16778,22 +17725,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="456"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="457" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="458"/>
+      <c r="K58" s="459">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="459"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16937,17 +17884,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16958,14 +17902,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19383,7 +20330,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="512" t="s">
+      <c r="F87" s="506" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -19396,7 +20343,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="513"/>
+      <c r="F88" s="507"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -19708,23 +20655,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="444"/>
+      <c r="C1" s="446" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="447"/>
+      <c r="E1" s="447"/>
+      <c r="F1" s="447"/>
+      <c r="G1" s="447"/>
+      <c r="H1" s="447"/>
+      <c r="I1" s="447"/>
+      <c r="J1" s="447"/>
+      <c r="K1" s="447"/>
+      <c r="L1" s="447"/>
+      <c r="M1" s="447"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="445"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19734,24 +20681,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="449"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="450" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="450"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="508" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19766,14 +20713,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="452"/>
+      <c r="H4" s="453" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="454"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19783,15 +20730,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="488"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="509"/>
+      <c r="W4" s="497" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="497"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19852,8 +20799,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="497"/>
+      <c r="X5" s="497"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20610,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="501">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20662,7 +21609,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="502"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20711,8 +21658,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="503"/>
+      <c r="X21" s="503"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20813,8 +21760,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="504"/>
+      <c r="X23" s="504"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20865,8 +21812,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="504"/>
+      <c r="X24" s="504"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20912,8 +21859,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="505"/>
+      <c r="X25" s="505"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20961,8 +21908,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="505"/>
+      <c r="X26" s="505"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21022,9 +21969,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="498"/>
+      <c r="X27" s="499"/>
+      <c r="Y27" s="500"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21078,9 +22025,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="499"/>
+      <c r="X28" s="499"/>
+      <c r="Y28" s="500"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21396,11 +22343,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="506">
+      <c r="M36" s="489">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="491">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -21408,7 +22355,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="493">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -21427,13 +22374,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="490"/>
+      <c r="N37" s="492"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="494"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21707,26 +22654,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="467"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="468">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="495"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="472" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="472"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -21735,29 +22682,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="496" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="496"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="473" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="474"/>
+      <c r="K54" s="475">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="470"/>
-      <c r="M54" s="498" t="s">
+      <c r="L54" s="475"/>
+      <c r="M54" s="481" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="499"/>
-      <c r="O54" s="499"/>
-      <c r="P54" s="499"/>
-      <c r="Q54" s="500"/>
+      <c r="N54" s="482"/>
+      <c r="O54" s="482"/>
+      <c r="P54" s="482"/>
+      <c r="Q54" s="483"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21771,11 +22718,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="501"/>
-      <c r="N55" s="502"/>
-      <c r="O55" s="502"/>
-      <c r="P55" s="502"/>
-      <c r="Q55" s="503"/>
+      <c r="M55" s="484"/>
+      <c r="N55" s="485"/>
+      <c r="O55" s="485"/>
+      <c r="P55" s="485"/>
+      <c r="Q55" s="486"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21793,11 +22740,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="477">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="478"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21814,22 +22761,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="456"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="457" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="458"/>
+      <c r="K58" s="459">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="459"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21973,13 +22920,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -21989,20 +22943,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24392,7 +25339,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="512" t="s">
+      <c r="F75" s="506" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -24405,7 +25352,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="513"/>
+      <c r="F76" s="507"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -24697,23 +25644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="516" t="s">
+      <c r="B1" s="444"/>
+      <c r="C1" s="510" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="517"/>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-      <c r="L1" s="517"/>
-      <c r="M1" s="517"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="445"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24723,24 +25670,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="449"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="450" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="450"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="508" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24755,14 +25702,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="452"/>
+      <c r="H4" s="453" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="454"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24772,15 +25719,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="488"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="509"/>
+      <c r="W4" s="497" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="497"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24831,8 +25778,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="497"/>
+      <c r="X5" s="497"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25596,7 +26543,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="501">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25649,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="502"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25698,8 +26645,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="503"/>
+      <c r="X21" s="503"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25799,8 +26746,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="504"/>
+      <c r="X23" s="504"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25855,8 +26802,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="504"/>
+      <c r="X24" s="504"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25901,8 +26848,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="505"/>
+      <c r="X25" s="505"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25950,8 +26897,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="505"/>
+      <c r="X26" s="505"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26005,9 +26952,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="498"/>
+      <c r="X27" s="499"/>
+      <c r="Y27" s="500"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26061,9 +27008,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="499"/>
+      <c r="X28" s="499"/>
+      <c r="Y28" s="500"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26368,11 +27315,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="506">
+      <c r="M36" s="489">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="491">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -26380,7 +27327,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="493">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -26405,13 +27352,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="490"/>
+      <c r="N37" s="492"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="494"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -26698,26 +27645,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="467"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="468">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="495"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="472" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="472"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -26726,22 +27673,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="496" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="496"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="473" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="474"/>
+      <c r="K54" s="475">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="470"/>
+      <c r="L54" s="475"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -26782,11 +27729,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="477">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="478"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26803,22 +27750,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="456"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="457" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="458"/>
+      <c r="K58" s="459">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="459"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -26962,6 +27909,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26977,20 +27938,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28651,12 +29598,12 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="518" t="s">
+      <c r="B43" s="512" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="519"/>
-      <c r="D43" s="519"/>
-      <c r="E43" s="520"/>
+      <c r="C43" s="513"/>
+      <c r="D43" s="513"/>
+      <c r="E43" s="514"/>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28681,10 +29628,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="521"/>
-      <c r="C44" s="522"/>
-      <c r="D44" s="522"/>
-      <c r="E44" s="523"/>
+      <c r="B44" s="515"/>
+      <c r="C44" s="516"/>
+      <c r="D44" s="516"/>
+      <c r="E44" s="517"/>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28709,10 +29656,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="524"/>
-      <c r="C45" s="525"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="526"/>
+      <c r="B45" s="518"/>
+      <c r="C45" s="519"/>
+      <c r="D45" s="519"/>
+      <c r="E45" s="520"/>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -28796,11 +29743,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="527" t="s">
+      <c r="J48" s="521" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="528"/>
-      <c r="L48" s="529"/>
+      <c r="K48" s="522"/>
+      <c r="L48" s="523"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -28818,9 +29765,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="530"/>
-      <c r="K49" s="531"/>
-      <c r="L49" s="532"/>
+      <c r="J49" s="524"/>
+      <c r="K49" s="525"/>
+      <c r="L49" s="526"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -29447,7 +30394,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="512" t="s">
+      <c r="F80" s="506" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -29460,7 +30407,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="513"/>
+      <c r="F81" s="507"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -29745,8 +30692,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29775,23 +30722,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="516" t="s">
+      <c r="B1" s="444"/>
+      <c r="C1" s="510" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="517"/>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-      <c r="L1" s="517"/>
-      <c r="M1" s="517"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="445"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29801,24 +30748,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="449"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="450" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="450"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="508" t="s">
         <v>216</v>
       </c>
     </row>
@@ -29833,14 +30780,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="452"/>
+      <c r="H4" s="453" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="454"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29850,15 +30797,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="488"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="509"/>
+      <c r="W4" s="497" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="497"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29909,8 +30856,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="497"/>
+      <c r="X5" s="497"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30453,7 +31400,7 @@
         <f t="shared" si="0"/>
         <v>94834</v>
       </c>
-      <c r="Q15" s="442">
+      <c r="Q15" s="436">
         <f t="shared" si="1"/>
         <v>1515</v>
       </c>
@@ -30671,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="501">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30723,7 +31670,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="502"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30765,15 +31712,15 @@
         <f t="shared" si="0"/>
         <v>105334</v>
       </c>
-      <c r="Q21" s="441">
+      <c r="Q21" s="435">
         <v>-1515</v>
       </c>
       <c r="R21" s="407">
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="503"/>
+      <c r="X21" s="503"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30872,8 +31819,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="504"/>
+      <c r="X23" s="504"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30928,8 +31875,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="504"/>
+      <c r="X24" s="504"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30977,8 +31924,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="505"/>
+      <c r="X25" s="505"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31026,8 +31973,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="505"/>
+      <c r="X26" s="505"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31075,9 +32022,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="498"/>
+      <c r="X27" s="499"/>
+      <c r="Y27" s="500"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31125,9 +32072,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="499"/>
+      <c r="X28" s="499"/>
+      <c r="Y28" s="500"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31161,11 +32108,11 @@
         <f>3507.28+46135</f>
         <v>49642.28</v>
       </c>
-      <c r="N29" s="443">
+      <c r="N29" s="437">
         <f>7491+411</f>
         <v>7902</v>
       </c>
-      <c r="O29" s="446" t="s">
+      <c r="O29" s="440" t="s">
         <v>455</v>
       </c>
       <c r="P29" s="34">
@@ -31179,7 +32126,7 @@
       <c r="R29" s="320">
         <v>0</v>
       </c>
-      <c r="T29" s="448">
+      <c r="T29" s="442">
         <v>7491</v>
       </c>
       <c r="U29" s="337"/>
@@ -31219,10 +32166,10 @@
         <f>680259.73+69394+54204.48</f>
         <v>803858.21</v>
       </c>
-      <c r="N30" s="443">
+      <c r="N30" s="437">
         <v>26626</v>
       </c>
-      <c r="O30" s="447" t="s">
+      <c r="O30" s="441" t="s">
         <v>453</v>
       </c>
       <c r="P30" s="34">
@@ -31232,10 +32179,10 @@
       <c r="Q30" s="326">
         <v>0</v>
       </c>
-      <c r="R30" s="445">
+      <c r="R30" s="439">
         <v>92514</v>
       </c>
-      <c r="T30" s="448">
+      <c r="T30" s="442">
         <v>26626</v>
       </c>
       <c r="X30" s="225"/>
@@ -31278,11 +32225,11 @@
         <f>998+41741</f>
         <v>42739</v>
       </c>
-      <c r="N31" s="443">
+      <c r="N31" s="437">
         <f>10137+26711</f>
         <v>36848</v>
       </c>
-      <c r="O31" s="446" t="s">
+      <c r="O31" s="440" t="s">
         <v>455</v>
       </c>
       <c r="P31" s="34">
@@ -31296,7 +32243,7 @@
       <c r="R31" s="322">
         <v>0</v>
       </c>
-      <c r="T31" s="448">
+      <c r="T31" s="442">
         <v>10137</v>
       </c>
     </row>
@@ -31345,7 +32292,7 @@
       <c r="R32" s="228">
         <v>0</v>
       </c>
-      <c r="T32" s="448">
+      <c r="T32" s="442">
         <v>0</v>
       </c>
     </row>
@@ -31376,7 +32323,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="228"/>
-      <c r="T33" s="449">
+      <c r="T33" s="443">
         <f>SUM(T29:T32)</f>
         <v>44254</v>
       </c>
@@ -31431,7 +32378,7 @@
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="444">
+      <c r="Q35" s="438">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -31450,11 +32397,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="506">
+      <c r="M36" s="489">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="491">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -31462,7 +32409,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="533">
+      <c r="Q36" s="527">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -31487,13 +32434,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="490"/>
+      <c r="N37" s="492"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="534"/>
+      <c r="Q37" s="528"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -31543,11 +32490,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="535">
+      <c r="M39" s="529">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="536"/>
+      <c r="N39" s="530"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -31789,26 +32736,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="467"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="468">
         <f>I50+L50</f>
         <v>180192.62</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="495"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="472" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="472"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2717217.48</v>
@@ -31817,22 +32764,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="496" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="496"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="473" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="474"/>
+      <c r="K54" s="475">
         <f>F56+F57+F58</f>
         <v>3983785.9299999997</v>
       </c>
-      <c r="L54" s="470"/>
+      <c r="L54" s="475"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31873,11 +32820,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="477">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="478"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31894,22 +32841,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="456"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="457" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="458"/>
+      <c r="K58" s="459">
         <f>K54+K56</f>
         <v>2834045.5199999996</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="459"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -32053,20 +33000,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -32083,6 +33016,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
